--- a/Data/Monitor-Geo-Trades-Service.xlsx
+++ b/Data/Monitor-Geo-Trades-Service.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29608"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29617"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\Applications\Cursor\Alphaliner\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\Applications\Cursor\Shipping Schedule\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4CE5137-5A3D-4FB4-9BC0-7022CA46C2BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{606250E9-4F4D-4664-9DD4-90B8B4ABE4DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19319,9 +19319,9 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -19356,7 +19356,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -19391,7 +19391,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -19426,7 +19426,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -19461,7 +19461,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -19496,7 +19496,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -19531,7 +19531,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -19566,7 +19566,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -19601,7 +19601,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -19636,7 +19636,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -19671,7 +19671,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -19706,7 +19706,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -19741,7 +19741,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -19776,7 +19776,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -19811,7 +19811,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -19846,7 +19846,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>11</v>
       </c>
@@ -19881,7 +19881,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>11</v>
       </c>
@@ -19916,7 +19916,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>11</v>
       </c>
@@ -19951,7 +19951,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>11</v>
       </c>
@@ -19986,7 +19986,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>11</v>
       </c>
@@ -20021,7 +20021,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>11</v>
       </c>
@@ -20056,7 +20056,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>11</v>
       </c>
@@ -20091,7 +20091,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>11</v>
       </c>
@@ -20126,7 +20126,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>11</v>
       </c>
@@ -20161,7 +20161,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>11</v>
       </c>
@@ -20196,7 +20196,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>11</v>
       </c>
@@ -20231,7 +20231,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>11</v>
       </c>
@@ -20266,7 +20266,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>11</v>
       </c>
@@ -20301,7 +20301,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>11</v>
       </c>
@@ -20336,7 +20336,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>11</v>
       </c>
@@ -20371,7 +20371,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>11</v>
       </c>
@@ -20406,7 +20406,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>11</v>
       </c>
@@ -20441,7 +20441,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>11</v>
       </c>
@@ -20476,7 +20476,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>11</v>
       </c>
@@ -20511,7 +20511,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>11</v>
       </c>
@@ -20546,7 +20546,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>11</v>
       </c>
@@ -20581,7 +20581,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>11</v>
       </c>
@@ -20616,7 +20616,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>11</v>
       </c>
@@ -20651,7 +20651,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>11</v>
       </c>
@@ -20686,7 +20686,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>11</v>
       </c>
@@ -20721,7 +20721,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>11</v>
       </c>
@@ -20756,7 +20756,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>11</v>
       </c>
@@ -20791,7 +20791,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>11</v>
       </c>
@@ -20826,7 +20826,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>11</v>
       </c>
@@ -20861,7 +20861,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>11</v>
       </c>
@@ -20896,7 +20896,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>11</v>
       </c>
@@ -20931,7 +20931,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>375</v>
       </c>
@@ -20966,7 +20966,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>375</v>
       </c>
@@ -21001,7 +21001,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="49" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>375</v>
       </c>
@@ -21036,7 +21036,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>375</v>
       </c>
@@ -21071,7 +21071,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>375</v>
       </c>
@@ -21106,7 +21106,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="52" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>375</v>
       </c>
@@ -21141,7 +21141,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>375</v>
       </c>
@@ -21176,7 +21176,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="54" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>375</v>
       </c>
@@ -21211,7 +21211,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="55" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>375</v>
       </c>
@@ -21246,7 +21246,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="56" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>375</v>
       </c>
@@ -21281,7 +21281,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="57" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>375</v>
       </c>
@@ -21316,7 +21316,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="58" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>375</v>
       </c>
@@ -21351,7 +21351,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="59" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>375</v>
       </c>
@@ -21386,7 +21386,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="60" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>375</v>
       </c>
@@ -21421,7 +21421,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="61" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>375</v>
       </c>
@@ -21456,7 +21456,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="62" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>375</v>
       </c>
@@ -21491,7 +21491,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="63" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>375</v>
       </c>
@@ -21526,7 +21526,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="64" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>375</v>
       </c>
@@ -21561,7 +21561,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="65" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>375</v>
       </c>
@@ -21596,7 +21596,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="66" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>375</v>
       </c>
@@ -21631,7 +21631,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="67" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>375</v>
       </c>
@@ -21666,7 +21666,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="68" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>375</v>
       </c>
@@ -21701,7 +21701,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="69" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>375</v>
       </c>
@@ -21736,7 +21736,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="70" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>375</v>
       </c>
@@ -21771,7 +21771,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="71" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>375</v>
       </c>
@@ -21806,7 +21806,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="72" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>552</v>
       </c>
@@ -21841,7 +21841,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="73" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>552</v>
       </c>
@@ -21876,7 +21876,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="74" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>552</v>
       </c>
@@ -21911,7 +21911,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="75" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>552</v>
       </c>
@@ -21946,7 +21946,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="76" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>552</v>
       </c>
@@ -21981,7 +21981,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="77" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>552</v>
       </c>
@@ -22016,7 +22016,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="78" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>552</v>
       </c>
@@ -22051,7 +22051,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="79" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>552</v>
       </c>
@@ -22086,7 +22086,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="80" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>552</v>
       </c>
@@ -22121,7 +22121,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="81" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>552</v>
       </c>
@@ -22156,7 +22156,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="82" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>552</v>
       </c>
@@ -22191,7 +22191,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="83" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>552</v>
       </c>
@@ -22226,7 +22226,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="84" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>552</v>
       </c>
@@ -22261,7 +22261,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="85" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>552</v>
       </c>
@@ -22296,7 +22296,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="86" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>552</v>
       </c>
@@ -22331,7 +22331,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="87" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>552</v>
       </c>
@@ -22366,7 +22366,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="88" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>552</v>
       </c>
@@ -22401,7 +22401,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="89" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>552</v>
       </c>
@@ -22436,7 +22436,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="90" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>576</v>
       </c>
@@ -22471,7 +22471,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="91" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>576</v>
       </c>
@@ -22506,7 +22506,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="92" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>576</v>
       </c>
@@ -22541,7 +22541,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="93" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>576</v>
       </c>
@@ -22576,7 +22576,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="94" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>576</v>
       </c>
@@ -22611,7 +22611,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="95" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>576</v>
       </c>
@@ -22646,7 +22646,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="96" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>576</v>
       </c>
@@ -22681,7 +22681,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="97" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>576</v>
       </c>
@@ -22716,7 +22716,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="98" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>576</v>
       </c>
@@ -22751,7 +22751,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="99" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>576</v>
       </c>
@@ -22786,7 +22786,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="100" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>576</v>
       </c>
@@ -22821,7 +22821,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="101" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>576</v>
       </c>
@@ -22856,7 +22856,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="102" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>576</v>
       </c>
@@ -22891,7 +22891,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="103" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>576</v>
       </c>
@@ -22926,7 +22926,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="104" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>576</v>
       </c>
@@ -22961,7 +22961,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="105" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>576</v>
       </c>
@@ -22996,7 +22996,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="106" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>687</v>
       </c>
@@ -23031,7 +23031,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="107" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>687</v>
       </c>
@@ -23066,7 +23066,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="108" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>687</v>
       </c>
@@ -23101,7 +23101,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="109" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>687</v>
       </c>
@@ -23136,7 +23136,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="110" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>687</v>
       </c>
@@ -23171,7 +23171,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="111" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>687</v>
       </c>
@@ -23206,7 +23206,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="112" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>687</v>
       </c>
@@ -23241,7 +23241,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="113" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>687</v>
       </c>
@@ -23276,7 +23276,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="114" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>687</v>
       </c>
@@ -23311,7 +23311,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="115" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>687</v>
       </c>
@@ -23346,7 +23346,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="116" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>687</v>
       </c>
@@ -23381,7 +23381,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="117" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>687</v>
       </c>
@@ -23416,7 +23416,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="118" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>687</v>
       </c>
@@ -23451,7 +23451,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="119" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>687</v>
       </c>
@@ -23486,7 +23486,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="120" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>687</v>
       </c>
@@ -23521,7 +23521,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="121" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>687</v>
       </c>
@@ -23556,7 +23556,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="122" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>687</v>
       </c>
@@ -23591,7 +23591,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="123" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>687</v>
       </c>
@@ -23626,7 +23626,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="124" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>687</v>
       </c>
@@ -23661,7 +23661,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="125" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>687</v>
       </c>
@@ -23696,7 +23696,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="126" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>687</v>
       </c>
@@ -23731,7 +23731,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="127" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>687</v>
       </c>
@@ -23766,7 +23766,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="128" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>687</v>
       </c>
@@ -23801,7 +23801,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="129" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>687</v>
       </c>
@@ -23836,7 +23836,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="130" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>687</v>
       </c>
@@ -23871,7 +23871,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="131" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>846</v>
       </c>
@@ -23906,7 +23906,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="132" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>846</v>
       </c>
@@ -23941,7 +23941,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="133" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>846</v>
       </c>
@@ -23976,7 +23976,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="134" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>846</v>
       </c>
@@ -24011,7 +24011,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="135" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>846</v>
       </c>
@@ -24046,7 +24046,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="136" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>846</v>
       </c>
@@ -24081,7 +24081,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="137" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>846</v>
       </c>
@@ -24116,7 +24116,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="138" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>846</v>
       </c>
@@ -24151,7 +24151,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="139" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>846</v>
       </c>
@@ -24186,7 +24186,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="140" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>846</v>
       </c>
@@ -24221,7 +24221,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="141" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>846</v>
       </c>
@@ -24256,7 +24256,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="142" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>846</v>
       </c>
@@ -24291,7 +24291,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="143" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>846</v>
       </c>
@@ -24326,7 +24326,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="144" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>846</v>
       </c>
@@ -24361,7 +24361,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="145" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>846</v>
       </c>
@@ -24396,7 +24396,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="146" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>846</v>
       </c>
@@ -24431,7 +24431,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="147" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>846</v>
       </c>
@@ -24466,7 +24466,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="148" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>846</v>
       </c>
@@ -24501,7 +24501,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="149" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>846</v>
       </c>
@@ -24536,7 +24536,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="150" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>846</v>
       </c>
@@ -24571,7 +24571,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="151" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>995</v>
       </c>
@@ -24606,7 +24606,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="152" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>995</v>
       </c>
@@ -24641,7 +24641,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="153" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>995</v>
       </c>
@@ -24676,7 +24676,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="154" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>995</v>
       </c>
@@ -24711,7 +24711,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="155" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>995</v>
       </c>
@@ -24746,7 +24746,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="156" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>995</v>
       </c>
@@ -24781,7 +24781,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="157" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>995</v>
       </c>
@@ -24816,7 +24816,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="158" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>995</v>
       </c>
@@ -24851,7 +24851,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="159" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>995</v>
       </c>
@@ -24886,7 +24886,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="160" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>995</v>
       </c>
@@ -24921,7 +24921,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="161" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>995</v>
       </c>
@@ -24956,7 +24956,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="162" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>995</v>
       </c>
@@ -24991,7 +24991,7 @@
         <v>1086</v>
       </c>
     </row>
-    <row r="163" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>995</v>
       </c>
@@ -25026,7 +25026,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="164" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>995</v>
       </c>
@@ -25061,7 +25061,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="165" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>995</v>
       </c>
@@ -25096,7 +25096,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="166" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>995</v>
       </c>
@@ -25131,7 +25131,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="167" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>995</v>
       </c>
@@ -25166,7 +25166,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="168" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>995</v>
       </c>
@@ -25201,7 +25201,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="169" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>995</v>
       </c>
@@ -25236,7 +25236,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="170" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>995</v>
       </c>
@@ -25271,7 +25271,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="171" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>995</v>
       </c>
@@ -25306,7 +25306,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="172" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>995</v>
       </c>
@@ -25341,7 +25341,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="173" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>995</v>
       </c>
@@ -25376,7 +25376,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="174" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>995</v>
       </c>
@@ -25411,7 +25411,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="175" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>995</v>
       </c>
@@ -25446,7 +25446,7 @@
         <v>1178</v>
       </c>
     </row>
-    <row r="176" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>995</v>
       </c>
@@ -25481,7 +25481,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="177" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>995</v>
       </c>
@@ -25516,7 +25516,7 @@
         <v>1193</v>
       </c>
     </row>
-    <row r="178" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>995</v>
       </c>
@@ -25551,7 +25551,7 @@
         <v>1201</v>
       </c>
     </row>
-    <row r="179" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>995</v>
       </c>
@@ -25586,7 +25586,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="180" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>995</v>
       </c>
@@ -25621,7 +25621,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="181" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>995</v>
       </c>
@@ -25656,7 +25656,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="182" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>995</v>
       </c>
@@ -25691,7 +25691,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="183" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>995</v>
       </c>
@@ -25726,7 +25726,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="184" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>995</v>
       </c>
@@ -25761,7 +25761,7 @@
         <v>1241</v>
       </c>
     </row>
-    <row r="185" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>995</v>
       </c>
@@ -25796,7 +25796,7 @@
         <v>1249</v>
       </c>
     </row>
-    <row r="186" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>995</v>
       </c>
@@ -25831,7 +25831,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="187" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>995</v>
       </c>
@@ -25866,7 +25866,7 @@
         <v>1262</v>
       </c>
     </row>
-    <row r="188" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>995</v>
       </c>
@@ -25901,7 +25901,7 @@
         <v>1270</v>
       </c>
     </row>
-    <row r="189" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>995</v>
       </c>
@@ -25936,7 +25936,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="190" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>995</v>
       </c>
@@ -25971,7 +25971,7 @@
         <v>1286</v>
       </c>
     </row>
-    <row r="191" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>995</v>
       </c>
@@ -26006,7 +26006,7 @@
         <v>1294</v>
       </c>
     </row>
-    <row r="192" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>995</v>
       </c>
@@ -26041,7 +26041,7 @@
         <v>1302</v>
       </c>
     </row>
-    <row r="193" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>995</v>
       </c>
@@ -26076,7 +26076,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="194" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>995</v>
       </c>
@@ -26111,7 +26111,7 @@
         <v>1318</v>
       </c>
     </row>
-    <row r="195" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>995</v>
       </c>
@@ -26146,7 +26146,7 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="196" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>995</v>
       </c>
@@ -26181,7 +26181,7 @@
         <v>1334</v>
       </c>
     </row>
-    <row r="197" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>1335</v>
       </c>
@@ -26216,7 +26216,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="198" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>1335</v>
       </c>
@@ -26251,7 +26251,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="199" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>1335</v>
       </c>
@@ -26286,7 +26286,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="200" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>1335</v>
       </c>
@@ -26321,7 +26321,7 @@
         <v>1359</v>
       </c>
     </row>
-    <row r="201" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>1335</v>
       </c>
@@ -26356,7 +26356,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="202" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>1335</v>
       </c>
@@ -26391,7 +26391,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="203" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>1335</v>
       </c>
@@ -26426,7 +26426,7 @@
         <v>1375</v>
       </c>
     </row>
-    <row r="204" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>1335</v>
       </c>
@@ -26461,7 +26461,7 @@
         <v>1382</v>
       </c>
     </row>
-    <row r="205" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>1335</v>
       </c>
@@ -26496,7 +26496,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="206" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>1335</v>
       </c>
@@ -26531,7 +26531,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="207" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>1335</v>
       </c>
@@ -26566,7 +26566,7 @@
         <v>1395</v>
       </c>
     </row>
-    <row r="208" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>1335</v>
       </c>
@@ -26601,7 +26601,7 @@
         <v>1402</v>
       </c>
     </row>
-    <row r="209" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>1335</v>
       </c>
@@ -26636,7 +26636,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="210" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>1335</v>
       </c>
@@ -26671,7 +26671,7 @@
         <v>1410</v>
       </c>
     </row>
-    <row r="211" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>1335</v>
       </c>
@@ -26706,7 +26706,7 @@
         <v>1417</v>
       </c>
     </row>
-    <row r="212" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>1335</v>
       </c>
@@ -26741,7 +26741,7 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="213" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>1335</v>
       </c>
@@ -26776,7 +26776,7 @@
         <v>1431</v>
       </c>
     </row>
-    <row r="214" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>1335</v>
       </c>
@@ -26811,7 +26811,7 @@
         <v>1439</v>
       </c>
     </row>
-    <row r="215" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>1335</v>
       </c>
@@ -26846,7 +26846,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="216" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>1335</v>
       </c>
@@ -26881,7 +26881,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="217" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>1335</v>
       </c>
@@ -26916,7 +26916,7 @@
         <v>1447</v>
       </c>
     </row>
-    <row r="218" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>1335</v>
       </c>
@@ -26951,7 +26951,7 @@
         <v>1455</v>
       </c>
     </row>
-    <row r="219" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>1335</v>
       </c>
@@ -26986,7 +26986,7 @@
         <v>1462</v>
       </c>
     </row>
-    <row r="220" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>1335</v>
       </c>
@@ -27021,7 +27021,7 @@
         <v>1470</v>
       </c>
     </row>
-    <row r="221" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>1471</v>
       </c>
@@ -27056,7 +27056,7 @@
         <v>1479</v>
       </c>
     </row>
-    <row r="222" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>1471</v>
       </c>
@@ -27091,7 +27091,7 @@
         <v>1487</v>
       </c>
     </row>
-    <row r="223" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>1471</v>
       </c>
@@ -27126,7 +27126,7 @@
         <v>1496</v>
       </c>
     </row>
-    <row r="224" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>1471</v>
       </c>
@@ -27161,7 +27161,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="225" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>1471</v>
       </c>
@@ -27196,7 +27196,7 @@
         <v>1508</v>
       </c>
     </row>
-    <row r="226" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>1471</v>
       </c>
@@ -27231,7 +27231,7 @@
         <v>1514</v>
       </c>
     </row>
-    <row r="227" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>1471</v>
       </c>
@@ -27266,7 +27266,7 @@
         <v>1519</v>
       </c>
     </row>
-    <row r="228" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>1520</v>
       </c>
@@ -27301,7 +27301,7 @@
         <v>1528</v>
       </c>
     </row>
-    <row r="229" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>1520</v>
       </c>
@@ -27336,7 +27336,7 @@
         <v>1536</v>
       </c>
     </row>
-    <row r="230" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>1520</v>
       </c>
@@ -27371,7 +27371,7 @@
         <v>1544</v>
       </c>
     </row>
-    <row r="231" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>1520</v>
       </c>
@@ -27406,7 +27406,7 @@
         <v>1552</v>
       </c>
     </row>
-    <row r="232" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>1520</v>
       </c>
@@ -27441,7 +27441,7 @@
         <v>1559</v>
       </c>
     </row>
-    <row r="233" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>1520</v>
       </c>
@@ -27476,7 +27476,7 @@
         <v>1562</v>
       </c>
     </row>
-    <row r="234" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>1520</v>
       </c>
@@ -27511,7 +27511,7 @@
         <v>1570</v>
       </c>
     </row>
-    <row r="235" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>1520</v>
       </c>
@@ -27546,7 +27546,7 @@
         <v>1577</v>
       </c>
     </row>
-    <row r="236" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>1520</v>
       </c>
@@ -27581,7 +27581,7 @@
         <v>1585</v>
       </c>
     </row>
-    <row r="237" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>1520</v>
       </c>
@@ -27616,7 +27616,7 @@
         <v>1593</v>
       </c>
     </row>
-    <row r="238" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>1520</v>
       </c>
@@ -27651,7 +27651,7 @@
         <v>1601</v>
       </c>
     </row>
-    <row r="239" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>1520</v>
       </c>
@@ -27686,7 +27686,7 @@
         <v>1608</v>
       </c>
     </row>
-    <row r="240" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>1520</v>
       </c>
@@ -27721,7 +27721,7 @@
         <v>1615</v>
       </c>
     </row>
-    <row r="241" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>1520</v>
       </c>
@@ -27756,7 +27756,7 @@
         <v>1622</v>
       </c>
     </row>
-    <row r="242" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>1520</v>
       </c>
@@ -27791,7 +27791,7 @@
         <v>1629</v>
       </c>
     </row>
-    <row r="243" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>1520</v>
       </c>
@@ -27826,7 +27826,7 @@
         <v>1636</v>
       </c>
     </row>
-    <row r="244" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>1520</v>
       </c>
@@ -27861,7 +27861,7 @@
         <v>1643</v>
       </c>
     </row>
-    <row r="245" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>1520</v>
       </c>
@@ -27896,7 +27896,7 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="246" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>1520</v>
       </c>
@@ -27931,7 +27931,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="247" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>1520</v>
       </c>
@@ -27966,7 +27966,7 @@
         <v>1662</v>
       </c>
     </row>
-    <row r="248" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>1520</v>
       </c>
@@ -28001,7 +28001,7 @@
         <v>1670</v>
       </c>
     </row>
-    <row r="249" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>1520</v>
       </c>
@@ -28036,7 +28036,7 @@
         <v>1678</v>
       </c>
     </row>
-    <row r="250" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>1520</v>
       </c>
@@ -28071,7 +28071,7 @@
         <v>1685</v>
       </c>
     </row>
-    <row r="251" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>1686</v>
       </c>
@@ -28106,7 +28106,7 @@
         <v>1694</v>
       </c>
     </row>
-    <row r="252" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>1686</v>
       </c>
@@ -28141,7 +28141,7 @@
         <v>1702</v>
       </c>
     </row>
-    <row r="253" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>1686</v>
       </c>
@@ -28176,7 +28176,7 @@
         <v>1562</v>
       </c>
     </row>
-    <row r="254" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>1686</v>
       </c>
@@ -28211,7 +28211,7 @@
         <v>1570</v>
       </c>
     </row>
-    <row r="255" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>1686</v>
       </c>
@@ -28246,7 +28246,7 @@
         <v>1710</v>
       </c>
     </row>
-    <row r="256" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>1686</v>
       </c>
@@ -28281,7 +28281,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="257" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>1686</v>
       </c>
@@ -28316,7 +28316,7 @@
         <v>1721</v>
       </c>
     </row>
-    <row r="258" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>1686</v>
       </c>
@@ -28351,7 +28351,7 @@
         <v>1729</v>
       </c>
     </row>
-    <row r="259" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>1686</v>
       </c>
@@ -28386,7 +28386,7 @@
         <v>1736</v>
       </c>
     </row>
-    <row r="260" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>1686</v>
       </c>
@@ -28421,7 +28421,7 @@
         <v>1743</v>
       </c>
     </row>
-    <row r="261" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>1686</v>
       </c>
@@ -28456,7 +28456,7 @@
         <v>1585</v>
       </c>
     </row>
-    <row r="262" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>1686</v>
       </c>
@@ -28491,7 +28491,7 @@
         <v>1608</v>
       </c>
     </row>
-    <row r="263" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>1686</v>
       </c>
@@ -28526,7 +28526,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="264" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>1686</v>
       </c>
@@ -28561,7 +28561,7 @@
         <v>1750</v>
       </c>
     </row>
-    <row r="265" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>1686</v>
       </c>
@@ -28596,7 +28596,7 @@
         <v>1757</v>
       </c>
     </row>
-    <row r="266" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>1686</v>
       </c>
@@ -28631,7 +28631,7 @@
         <v>1764</v>
       </c>
     </row>
-    <row r="267" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>1765</v>
       </c>
@@ -28666,7 +28666,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="268" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>1765</v>
       </c>
@@ -28701,7 +28701,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="269" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>1765</v>
       </c>
@@ -28736,7 +28736,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="270" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>1765</v>
       </c>
@@ -28771,7 +28771,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="271" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>1765</v>
       </c>
@@ -28806,7 +28806,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="272" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>1765</v>
       </c>
@@ -28841,7 +28841,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="273" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>1765</v>
       </c>
@@ -28876,7 +28876,7 @@
         <v>1770</v>
       </c>
     </row>
-    <row r="274" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>1765</v>
       </c>
@@ -28911,7 +28911,7 @@
         <v>1777</v>
       </c>
     </row>
-    <row r="275" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>1765</v>
       </c>
@@ -28946,7 +28946,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="276" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>1765</v>
       </c>
@@ -28981,7 +28981,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="277" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>1765</v>
       </c>
@@ -29016,7 +29016,7 @@
         <v>1784</v>
       </c>
     </row>
-    <row r="278" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>1765</v>
       </c>
@@ -29051,7 +29051,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="279" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>1765</v>
       </c>
@@ -29086,7 +29086,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="280" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>1765</v>
       </c>
@@ -29121,7 +29121,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="281" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>1765</v>
       </c>
@@ -29156,7 +29156,7 @@
         <v>1792</v>
       </c>
     </row>
-    <row r="282" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>1765</v>
       </c>
@@ -29191,7 +29191,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="283" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>1765</v>
       </c>
@@ -29226,7 +29226,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="284" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>1765</v>
       </c>
@@ -29261,7 +29261,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="285" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>1765</v>
       </c>
@@ -29296,7 +29296,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="286" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>1765</v>
       </c>
@@ -29331,7 +29331,7 @@
         <v>1799</v>
       </c>
     </row>
-    <row r="287" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>1800</v>
       </c>
@@ -29366,7 +29366,7 @@
         <v>1808</v>
       </c>
     </row>
-    <row r="288" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>1800</v>
       </c>
@@ -29401,7 +29401,7 @@
         <v>1816</v>
       </c>
     </row>
-    <row r="289" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>1800</v>
       </c>
@@ -29436,7 +29436,7 @@
         <v>1824</v>
       </c>
     </row>
-    <row r="290" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>1800</v>
       </c>
@@ -29471,7 +29471,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="291" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>1800</v>
       </c>
@@ -29506,7 +29506,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="292" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>1800</v>
       </c>
@@ -29541,7 +29541,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="293" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>1800</v>
       </c>
@@ -29576,7 +29576,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="294" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>1800</v>
       </c>
@@ -29611,7 +29611,7 @@
         <v>1846</v>
       </c>
     </row>
-    <row r="295" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>1800</v>
       </c>
@@ -29646,7 +29646,7 @@
         <v>1853</v>
       </c>
     </row>
-    <row r="296" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>1800</v>
       </c>
@@ -29681,7 +29681,7 @@
         <v>1615</v>
       </c>
     </row>
-    <row r="297" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>1800</v>
       </c>
@@ -29716,7 +29716,7 @@
         <v>1861</v>
       </c>
     </row>
-    <row r="298" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>1800</v>
       </c>
@@ -29751,7 +29751,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="299" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>1869</v>
       </c>
@@ -29786,7 +29786,7 @@
         <v>1877</v>
       </c>
     </row>
-    <row r="300" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>1869</v>
       </c>
@@ -29821,7 +29821,7 @@
         <v>1884</v>
       </c>
     </row>
-    <row r="301" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>1869</v>
       </c>
@@ -29856,7 +29856,7 @@
         <v>1892</v>
       </c>
     </row>
-    <row r="302" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>1869</v>
       </c>
@@ -29891,7 +29891,7 @@
         <v>1898</v>
       </c>
     </row>
-    <row r="303" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>1869</v>
       </c>
@@ -29926,7 +29926,7 @@
         <v>1904</v>
       </c>
     </row>
-    <row r="304" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>1869</v>
       </c>
@@ -29961,7 +29961,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="305" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>1869</v>
       </c>
@@ -29996,7 +29996,7 @@
         <v>1920</v>
       </c>
     </row>
-    <row r="306" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>1869</v>
       </c>
@@ -30031,7 +30031,7 @@
         <v>1928</v>
       </c>
     </row>
-    <row r="307" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>1869</v>
       </c>
@@ -30066,7 +30066,7 @@
         <v>1935</v>
       </c>
     </row>
-    <row r="308" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>1869</v>
       </c>
@@ -30101,7 +30101,7 @@
         <v>1943</v>
       </c>
     </row>
-    <row r="309" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>1869</v>
       </c>
@@ -30136,7 +30136,7 @@
         <v>1951</v>
       </c>
     </row>
-    <row r="310" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>1869</v>
       </c>
@@ -30171,7 +30171,7 @@
         <v>1959</v>
       </c>
     </row>
-    <row r="311" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>1869</v>
       </c>
@@ -30206,7 +30206,7 @@
         <v>1967</v>
       </c>
     </row>
-    <row r="312" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>1869</v>
       </c>
@@ -30241,7 +30241,7 @@
         <v>1975</v>
       </c>
     </row>
-    <row r="313" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>1869</v>
       </c>
@@ -30276,7 +30276,7 @@
         <v>1983</v>
       </c>
     </row>
-    <row r="314" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>1869</v>
       </c>
@@ -30311,7 +30311,7 @@
         <v>1990</v>
       </c>
     </row>
-    <row r="315" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>1869</v>
       </c>
@@ -30346,7 +30346,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="316" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>1869</v>
       </c>
@@ -30381,7 +30381,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="317" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>1869</v>
       </c>
@@ -30416,7 +30416,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="318" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>1869</v>
       </c>
@@ -30451,7 +30451,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="319" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>1869</v>
       </c>
@@ -30486,7 +30486,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="320" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>1869</v>
       </c>
@@ -30521,7 +30521,7 @@
         <v>2033</v>
       </c>
     </row>
-    <row r="321" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>1869</v>
       </c>
@@ -30556,7 +30556,7 @@
         <v>2041</v>
       </c>
     </row>
-    <row r="322" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>1869</v>
       </c>
@@ -30591,7 +30591,7 @@
         <v>2049</v>
       </c>
     </row>
-    <row r="323" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>1869</v>
       </c>
@@ -30626,7 +30626,7 @@
         <v>2056</v>
       </c>
     </row>
-    <row r="324" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>1869</v>
       </c>
@@ -30661,7 +30661,7 @@
         <v>2063</v>
       </c>
     </row>
-    <row r="325" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>1869</v>
       </c>
@@ -30696,7 +30696,7 @@
         <v>2071</v>
       </c>
     </row>
-    <row r="326" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>1869</v>
       </c>
@@ -30731,7 +30731,7 @@
         <v>2079</v>
       </c>
     </row>
-    <row r="327" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>1869</v>
       </c>
@@ -30766,7 +30766,7 @@
         <v>2087</v>
       </c>
     </row>
-    <row r="328" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>1869</v>
       </c>
@@ -30801,7 +30801,7 @@
         <v>2095</v>
       </c>
     </row>
-    <row r="329" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>1869</v>
       </c>
@@ -30836,7 +30836,7 @@
         <v>2103</v>
       </c>
     </row>
-    <row r="330" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>1869</v>
       </c>
@@ -30871,7 +30871,7 @@
         <v>2111</v>
       </c>
     </row>
-    <row r="331" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>1869</v>
       </c>
@@ -30906,7 +30906,7 @@
         <v>2117</v>
       </c>
     </row>
-    <row r="332" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>1869</v>
       </c>
@@ -30941,7 +30941,7 @@
         <v>2125</v>
       </c>
     </row>
-    <row r="333" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>1869</v>
       </c>
@@ -30976,7 +30976,7 @@
         <v>2132</v>
       </c>
     </row>
-    <row r="334" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>1869</v>
       </c>
@@ -31011,7 +31011,7 @@
         <v>2140</v>
       </c>
     </row>
-    <row r="335" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>1869</v>
       </c>
@@ -31046,7 +31046,7 @@
         <v>2146</v>
       </c>
     </row>
-    <row r="336" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>1869</v>
       </c>
@@ -31081,7 +31081,7 @@
         <v>2153</v>
       </c>
     </row>
-    <row r="337" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>1869</v>
       </c>
@@ -31116,7 +31116,7 @@
         <v>2161</v>
       </c>
     </row>
-    <row r="338" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>1869</v>
       </c>
@@ -31151,7 +31151,7 @@
         <v>2169</v>
       </c>
     </row>
-    <row r="339" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>1869</v>
       </c>
@@ -31186,7 +31186,7 @@
         <v>2177</v>
       </c>
     </row>
-    <row r="340" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>1869</v>
       </c>
@@ -31221,7 +31221,7 @@
         <v>2184</v>
       </c>
     </row>
-    <row r="341" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>1869</v>
       </c>
@@ -31256,7 +31256,7 @@
         <v>2192</v>
       </c>
     </row>
-    <row r="342" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>1869</v>
       </c>
@@ -31291,7 +31291,7 @@
         <v>2197</v>
       </c>
     </row>
-    <row r="343" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>1869</v>
       </c>
@@ -31326,7 +31326,7 @@
         <v>2204</v>
       </c>
     </row>
-    <row r="344" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>1869</v>
       </c>
@@ -31361,7 +31361,7 @@
         <v>2212</v>
       </c>
     </row>
-    <row r="345" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>1869</v>
       </c>
@@ -31396,7 +31396,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="346" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>1869</v>
       </c>
@@ -31431,7 +31431,7 @@
         <v>2228</v>
       </c>
     </row>
-    <row r="347" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>2229</v>
       </c>
@@ -31466,7 +31466,7 @@
         <v>2237</v>
       </c>
     </row>
-    <row r="348" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>2229</v>
       </c>
@@ -31501,7 +31501,7 @@
         <v>2245</v>
       </c>
     </row>
-    <row r="349" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>2229</v>
       </c>
@@ -31536,7 +31536,7 @@
         <v>2253</v>
       </c>
     </row>
-    <row r="350" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>2229</v>
       </c>
@@ -31571,7 +31571,7 @@
         <v>2261</v>
       </c>
     </row>
-    <row r="351" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>2229</v>
       </c>
@@ -31606,7 +31606,7 @@
         <v>2269</v>
       </c>
     </row>
-    <row r="352" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>2229</v>
       </c>
@@ -31641,7 +31641,7 @@
         <v>2277</v>
       </c>
     </row>
-    <row r="353" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>2229</v>
       </c>
@@ -31676,7 +31676,7 @@
         <v>2285</v>
       </c>
     </row>
-    <row r="354" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>2229</v>
       </c>
@@ -31711,7 +31711,7 @@
         <v>2293</v>
       </c>
     </row>
-    <row r="355" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>2229</v>
       </c>
@@ -31746,7 +31746,7 @@
         <v>2301</v>
       </c>
     </row>
-    <row r="356" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>2229</v>
       </c>
@@ -31781,7 +31781,7 @@
         <v>2309</v>
       </c>
     </row>
-    <row r="357" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>2229</v>
       </c>
@@ -31816,7 +31816,7 @@
         <v>2317</v>
       </c>
     </row>
-    <row r="358" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>2229</v>
       </c>
@@ -31851,7 +31851,7 @@
         <v>2324</v>
       </c>
     </row>
-    <row r="359" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>2229</v>
       </c>
@@ -31886,7 +31886,7 @@
         <v>2332</v>
       </c>
     </row>
-    <row r="360" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>2229</v>
       </c>
@@ -31921,7 +31921,7 @@
         <v>2340</v>
       </c>
     </row>
-    <row r="361" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>2229</v>
       </c>
@@ -31956,7 +31956,7 @@
         <v>2348</v>
       </c>
     </row>
-    <row r="362" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>2229</v>
       </c>
@@ -31991,7 +31991,7 @@
         <v>2355</v>
       </c>
     </row>
-    <row r="363" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>2229</v>
       </c>
@@ -32026,7 +32026,7 @@
         <v>2363</v>
       </c>
     </row>
-    <row r="364" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>2229</v>
       </c>
@@ -32061,7 +32061,7 @@
         <v>2371</v>
       </c>
     </row>
-    <row r="365" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>2229</v>
       </c>
@@ -32096,7 +32096,7 @@
         <v>2379</v>
       </c>
     </row>
-    <row r="366" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>2229</v>
       </c>
@@ -32131,7 +32131,7 @@
         <v>2387</v>
       </c>
     </row>
-    <row r="367" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>2229</v>
       </c>
@@ -32166,7 +32166,7 @@
         <v>2395</v>
       </c>
     </row>
-    <row r="368" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>2229</v>
       </c>
@@ -32201,7 +32201,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="369" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>2229</v>
       </c>
@@ -32236,7 +32236,7 @@
         <v>2411</v>
       </c>
     </row>
-    <row r="370" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>2229</v>
       </c>
@@ -32271,7 +32271,7 @@
         <v>2419</v>
       </c>
     </row>
-    <row r="371" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>2229</v>
       </c>
@@ -32306,7 +32306,7 @@
         <v>2427</v>
       </c>
     </row>
-    <row r="372" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>2229</v>
       </c>
@@ -32341,7 +32341,7 @@
         <v>2435</v>
       </c>
     </row>
-    <row r="373" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>2229</v>
       </c>
@@ -32376,7 +32376,7 @@
         <v>2443</v>
       </c>
     </row>
-    <row r="374" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>2229</v>
       </c>
@@ -32411,7 +32411,7 @@
         <v>2451</v>
       </c>
     </row>
-    <row r="375" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>2229</v>
       </c>
@@ -32446,7 +32446,7 @@
         <v>2459</v>
       </c>
     </row>
-    <row r="376" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>2229</v>
       </c>
@@ -32481,7 +32481,7 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="377" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>2229</v>
       </c>
@@ -32516,7 +32516,7 @@
         <v>2474</v>
       </c>
     </row>
-    <row r="378" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>2229</v>
       </c>
@@ -32551,7 +32551,7 @@
         <v>2482</v>
       </c>
     </row>
-    <row r="379" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>2229</v>
       </c>
@@ -32586,7 +32586,7 @@
         <v>2490</v>
       </c>
     </row>
-    <row r="380" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>2229</v>
       </c>
@@ -32621,7 +32621,7 @@
         <v>2498</v>
       </c>
     </row>
-    <row r="381" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>2229</v>
       </c>
@@ -32656,7 +32656,7 @@
         <v>2505</v>
       </c>
     </row>
-    <row r="382" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>2229</v>
       </c>
@@ -32691,7 +32691,7 @@
         <v>2513</v>
       </c>
     </row>
-    <row r="383" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>2229</v>
       </c>
@@ -32726,7 +32726,7 @@
         <v>2518</v>
       </c>
     </row>
-    <row r="384" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>2229</v>
       </c>
@@ -32761,7 +32761,7 @@
         <v>2525</v>
       </c>
     </row>
-    <row r="385" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>2229</v>
       </c>
@@ -32796,7 +32796,7 @@
         <v>2532</v>
       </c>
     </row>
-    <row r="386" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>2229</v>
       </c>
@@ -32831,7 +32831,7 @@
         <v>2539</v>
       </c>
     </row>
-    <row r="387" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>2229</v>
       </c>
@@ -32866,7 +32866,7 @@
         <v>2547</v>
       </c>
     </row>
-    <row r="388" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>2229</v>
       </c>
@@ -32901,7 +32901,7 @@
         <v>2554</v>
       </c>
     </row>
-    <row r="389" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>2229</v>
       </c>
@@ -32936,7 +32936,7 @@
         <v>2561</v>
       </c>
     </row>
-    <row r="390" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>2229</v>
       </c>
@@ -32971,7 +32971,7 @@
         <v>2569</v>
       </c>
     </row>
-    <row r="391" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>2229</v>
       </c>
@@ -33006,7 +33006,7 @@
         <v>2576</v>
       </c>
     </row>
-    <row r="392" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>2229</v>
       </c>
@@ -33041,7 +33041,7 @@
         <v>2583</v>
       </c>
     </row>
-    <row r="393" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>2229</v>
       </c>
@@ -33076,7 +33076,7 @@
         <v>2591</v>
       </c>
     </row>
-    <row r="394" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>2229</v>
       </c>
@@ -33111,7 +33111,7 @@
         <v>2594</v>
       </c>
     </row>
-    <row r="395" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>2229</v>
       </c>
@@ -33146,7 +33146,7 @@
         <v>2601</v>
       </c>
     </row>
-    <row r="396" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>2229</v>
       </c>
@@ -33181,7 +33181,7 @@
         <v>2608</v>
       </c>
     </row>
-    <row r="397" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>2229</v>
       </c>
@@ -33216,7 +33216,7 @@
         <v>2615</v>
       </c>
     </row>
-    <row r="398" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>2229</v>
       </c>
@@ -33251,7 +33251,7 @@
         <v>2622</v>
       </c>
     </row>
-    <row r="399" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>2229</v>
       </c>
@@ -33286,7 +33286,7 @@
         <v>2629</v>
       </c>
     </row>
-    <row r="400" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>2229</v>
       </c>
@@ -33321,7 +33321,7 @@
         <v>2637</v>
       </c>
     </row>
-    <row r="401" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>2229</v>
       </c>
@@ -33356,7 +33356,7 @@
         <v>2645</v>
       </c>
     </row>
-    <row r="402" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>2229</v>
       </c>
@@ -33391,7 +33391,7 @@
         <v>2653</v>
       </c>
     </row>
-    <row r="403" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>2229</v>
       </c>
@@ -33426,7 +33426,7 @@
         <v>2660</v>
       </c>
     </row>
-    <row r="404" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>2229</v>
       </c>
@@ -33461,7 +33461,7 @@
         <v>2668</v>
       </c>
     </row>
-    <row r="405" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>2229</v>
       </c>
@@ -33496,7 +33496,7 @@
         <v>2676</v>
       </c>
     </row>
-    <row r="406" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>2229</v>
       </c>
@@ -33531,7 +33531,7 @@
         <v>2684</v>
       </c>
     </row>
-    <row r="407" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>2229</v>
       </c>
@@ -33566,7 +33566,7 @@
         <v>2690</v>
       </c>
     </row>
-    <row r="408" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>2229</v>
       </c>
@@ -33601,7 +33601,7 @@
         <v>2698</v>
       </c>
     </row>
-    <row r="409" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>2229</v>
       </c>
@@ -33636,7 +33636,7 @@
         <v>2706</v>
       </c>
     </row>
-    <row r="410" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>2229</v>
       </c>
@@ -33671,7 +33671,7 @@
         <v>2714</v>
       </c>
     </row>
-    <row r="411" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>2229</v>
       </c>
@@ -33706,7 +33706,7 @@
         <v>2722</v>
       </c>
     </row>
-    <row r="412" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>2229</v>
       </c>
@@ -33741,7 +33741,7 @@
         <v>2730</v>
       </c>
     </row>
-    <row r="413" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>2229</v>
       </c>
@@ -33776,7 +33776,7 @@
         <v>2738</v>
       </c>
     </row>
-    <row r="414" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>2229</v>
       </c>
@@ -33811,7 +33811,7 @@
         <v>2746</v>
       </c>
     </row>
-    <row r="415" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>2229</v>
       </c>
@@ -33846,7 +33846,7 @@
         <v>2753</v>
       </c>
     </row>
-    <row r="416" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>2229</v>
       </c>
@@ -33881,7 +33881,7 @@
         <v>2760</v>
       </c>
     </row>
-    <row r="417" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>2229</v>
       </c>
@@ -33916,7 +33916,7 @@
         <v>2768</v>
       </c>
     </row>
-    <row r="418" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>2229</v>
       </c>
@@ -33951,7 +33951,7 @@
         <v>2776</v>
       </c>
     </row>
-    <row r="419" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>2229</v>
       </c>
@@ -33986,7 +33986,7 @@
         <v>2783</v>
       </c>
     </row>
-    <row r="420" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>2229</v>
       </c>
@@ -34021,7 +34021,7 @@
         <v>2791</v>
       </c>
     </row>
-    <row r="421" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>2229</v>
       </c>
@@ -34056,7 +34056,7 @@
         <v>2798</v>
       </c>
     </row>
-    <row r="422" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>2229</v>
       </c>
@@ -34091,7 +34091,7 @@
         <v>2806</v>
       </c>
     </row>
-    <row r="423" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>2229</v>
       </c>
@@ -34126,7 +34126,7 @@
         <v>2814</v>
       </c>
     </row>
-    <row r="424" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>2229</v>
       </c>
@@ -34161,7 +34161,7 @@
         <v>2821</v>
       </c>
     </row>
-    <row r="425" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>2229</v>
       </c>
@@ -34196,7 +34196,7 @@
         <v>2828</v>
       </c>
     </row>
-    <row r="426" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>2229</v>
       </c>
@@ -34231,7 +34231,7 @@
         <v>2836</v>
       </c>
     </row>
-    <row r="427" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>2229</v>
       </c>
@@ -34266,7 +34266,7 @@
         <v>2843</v>
       </c>
     </row>
-    <row r="428" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>2229</v>
       </c>
@@ -34301,7 +34301,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="429" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>2229</v>
       </c>
@@ -34336,7 +34336,7 @@
         <v>2852</v>
       </c>
     </row>
-    <row r="430" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>2229</v>
       </c>
@@ -34371,7 +34371,7 @@
         <v>2859</v>
       </c>
     </row>
-    <row r="431" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>2229</v>
       </c>
@@ -34406,7 +34406,7 @@
         <v>2866</v>
       </c>
     </row>
-    <row r="432" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>2229</v>
       </c>
@@ -34441,7 +34441,7 @@
         <v>2873</v>
       </c>
     </row>
-    <row r="433" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>2229</v>
       </c>
@@ -34476,7 +34476,7 @@
         <v>2880</v>
       </c>
     </row>
-    <row r="434" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>2229</v>
       </c>
@@ -34511,7 +34511,7 @@
         <v>2887</v>
       </c>
     </row>
-    <row r="435" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>2229</v>
       </c>
@@ -34546,7 +34546,7 @@
         <v>2894</v>
       </c>
     </row>
-    <row r="436" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>2229</v>
       </c>
@@ -34581,7 +34581,7 @@
         <v>2901</v>
       </c>
     </row>
-    <row r="437" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>2229</v>
       </c>
@@ -34616,7 +34616,7 @@
         <v>2908</v>
       </c>
     </row>
-    <row r="438" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>2229</v>
       </c>
@@ -34651,7 +34651,7 @@
         <v>2915</v>
       </c>
     </row>
-    <row r="439" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>2229</v>
       </c>
@@ -34686,7 +34686,7 @@
         <v>2922</v>
       </c>
     </row>
-    <row r="440" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>2229</v>
       </c>
@@ -34721,7 +34721,7 @@
         <v>2929</v>
       </c>
     </row>
-    <row r="441" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>2229</v>
       </c>
@@ -34756,7 +34756,7 @@
         <v>2936</v>
       </c>
     </row>
-    <row r="442" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>2229</v>
       </c>
@@ -34791,7 +34791,7 @@
         <v>2944</v>
       </c>
     </row>
-    <row r="443" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>2229</v>
       </c>
@@ -34826,7 +34826,7 @@
         <v>2951</v>
       </c>
     </row>
-    <row r="444" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>2229</v>
       </c>
@@ -34861,7 +34861,7 @@
         <v>2958</v>
       </c>
     </row>
-    <row r="445" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>2229</v>
       </c>
@@ -34896,7 +34896,7 @@
         <v>2965</v>
       </c>
     </row>
-    <row r="446" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>2229</v>
       </c>
@@ -34931,7 +34931,7 @@
         <v>2972</v>
       </c>
     </row>
-    <row r="447" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>2229</v>
       </c>
@@ -34966,7 +34966,7 @@
         <v>2979</v>
       </c>
     </row>
-    <row r="448" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>2229</v>
       </c>
@@ -35001,7 +35001,7 @@
         <v>2986</v>
       </c>
     </row>
-    <row r="449" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>2229</v>
       </c>
@@ -35036,7 +35036,7 @@
         <v>2993</v>
       </c>
     </row>
-    <row r="450" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>2229</v>
       </c>
@@ -35071,7 +35071,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="451" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>2229</v>
       </c>
@@ -35106,7 +35106,7 @@
         <v>3007</v>
       </c>
     </row>
-    <row r="452" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>2229</v>
       </c>
@@ -35141,7 +35141,7 @@
         <v>3014</v>
       </c>
     </row>
-    <row r="453" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>2229</v>
       </c>
@@ -35176,7 +35176,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="454" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>2229</v>
       </c>
@@ -35211,7 +35211,7 @@
         <v>3027</v>
       </c>
     </row>
-    <row r="455" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>2229</v>
       </c>
@@ -35246,7 +35246,7 @@
         <v>3035</v>
       </c>
     </row>
-    <row r="456" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>2229</v>
       </c>
@@ -35281,7 +35281,7 @@
         <v>3042</v>
       </c>
     </row>
-    <row r="457" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>2229</v>
       </c>
@@ -35316,7 +35316,7 @@
         <v>3050</v>
       </c>
     </row>
-    <row r="458" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>2229</v>
       </c>
@@ -35351,7 +35351,7 @@
         <v>3056</v>
       </c>
     </row>
-    <row r="459" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
         <v>2229</v>
       </c>
@@ -35386,7 +35386,7 @@
         <v>3063</v>
       </c>
     </row>
-    <row r="460" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>2229</v>
       </c>
@@ -35421,7 +35421,7 @@
         <v>3071</v>
       </c>
     </row>
-    <row r="461" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>2229</v>
       </c>
@@ -35456,7 +35456,7 @@
         <v>3079</v>
       </c>
     </row>
-    <row r="462" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
         <v>2229</v>
       </c>
@@ -35491,7 +35491,7 @@
         <v>3086</v>
       </c>
     </row>
-    <row r="463" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
         <v>2229</v>
       </c>
@@ -35526,7 +35526,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="464" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
         <v>2229</v>
       </c>
@@ -35561,7 +35561,7 @@
         <v>3101</v>
       </c>
     </row>
-    <row r="465" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
         <v>2229</v>
       </c>
@@ -35596,7 +35596,7 @@
         <v>3109</v>
       </c>
     </row>
-    <row r="466" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
         <v>2229</v>
       </c>
@@ -35631,7 +35631,7 @@
         <v>3117</v>
       </c>
     </row>
-    <row r="467" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
         <v>2229</v>
       </c>
@@ -35666,7 +35666,7 @@
         <v>3125</v>
       </c>
     </row>
-    <row r="468" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
         <v>2229</v>
       </c>
@@ -35701,7 +35701,7 @@
         <v>3133</v>
       </c>
     </row>
-    <row r="469" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
         <v>2229</v>
       </c>
@@ -35736,7 +35736,7 @@
         <v>3140</v>
       </c>
     </row>
-    <row r="470" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
         <v>2229</v>
       </c>
@@ -35771,7 +35771,7 @@
         <v>3148</v>
       </c>
     </row>
-    <row r="471" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
         <v>2229</v>
       </c>
@@ -35806,7 +35806,7 @@
         <v>3155</v>
       </c>
     </row>
-    <row r="472" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
         <v>2229</v>
       </c>
@@ -35841,7 +35841,7 @@
         <v>3161</v>
       </c>
     </row>
-    <row r="473" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
         <v>2229</v>
       </c>
@@ -35876,7 +35876,7 @@
         <v>3169</v>
       </c>
     </row>
-    <row r="474" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
         <v>2229</v>
       </c>
@@ -35911,7 +35911,7 @@
         <v>3177</v>
       </c>
     </row>
-    <row r="475" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
         <v>2229</v>
       </c>
@@ -35946,7 +35946,7 @@
         <v>3184</v>
       </c>
     </row>
-    <row r="476" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
         <v>2229</v>
       </c>
@@ -35981,7 +35981,7 @@
         <v>3191</v>
       </c>
     </row>
-    <row r="477" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
         <v>2229</v>
       </c>
@@ -36016,7 +36016,7 @@
         <v>3199</v>
       </c>
     </row>
-    <row r="478" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
         <v>2229</v>
       </c>
@@ -36051,7 +36051,7 @@
         <v>3206</v>
       </c>
     </row>
-    <row r="479" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
         <v>2229</v>
       </c>
@@ -36086,7 +36086,7 @@
         <v>3213</v>
       </c>
     </row>
-    <row r="480" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
         <v>2229</v>
       </c>
@@ -36121,7 +36121,7 @@
         <v>3221</v>
       </c>
     </row>
-    <row r="481" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
         <v>2229</v>
       </c>
@@ -36156,7 +36156,7 @@
         <v>3228</v>
       </c>
     </row>
-    <row r="482" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
         <v>2229</v>
       </c>
@@ -36191,7 +36191,7 @@
         <v>3235</v>
       </c>
     </row>
-    <row r="483" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
         <v>2229</v>
       </c>
@@ -36226,7 +36226,7 @@
         <v>3243</v>
       </c>
     </row>
-    <row r="484" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
         <v>2229</v>
       </c>
@@ -36261,7 +36261,7 @@
         <v>3249</v>
       </c>
     </row>
-    <row r="485" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
         <v>2229</v>
       </c>
@@ -36296,7 +36296,7 @@
         <v>3257</v>
       </c>
     </row>
-    <row r="486" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
         <v>2229</v>
       </c>
@@ -36331,7 +36331,7 @@
         <v>3265</v>
       </c>
     </row>
-    <row r="487" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
         <v>2229</v>
       </c>
@@ -36366,7 +36366,7 @@
         <v>3272</v>
       </c>
     </row>
-    <row r="488" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
         <v>2229</v>
       </c>
@@ -36401,7 +36401,7 @@
         <v>3280</v>
       </c>
     </row>
-    <row r="489" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
         <v>2229</v>
       </c>
@@ -36436,7 +36436,7 @@
         <v>3288</v>
       </c>
     </row>
-    <row r="490" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
         <v>2229</v>
       </c>
@@ -36471,7 +36471,7 @@
         <v>3296</v>
       </c>
     </row>
-    <row r="491" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
         <v>2229</v>
       </c>
@@ -36506,7 +36506,7 @@
         <v>3304</v>
       </c>
     </row>
-    <row r="492" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
         <v>2229</v>
       </c>
@@ -36541,7 +36541,7 @@
         <v>3312</v>
       </c>
     </row>
-    <row r="493" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
         <v>2229</v>
       </c>
@@ -36576,7 +36576,7 @@
         <v>3319</v>
       </c>
     </row>
-    <row r="494" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
         <v>2229</v>
       </c>
@@ -36611,7 +36611,7 @@
         <v>3327</v>
       </c>
     </row>
-    <row r="495" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
         <v>2229</v>
       </c>
@@ -36646,7 +36646,7 @@
         <v>3335</v>
       </c>
     </row>
-    <row r="496" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
         <v>2229</v>
       </c>
@@ -36681,7 +36681,7 @@
         <v>3342</v>
       </c>
     </row>
-    <row r="497" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
         <v>2229</v>
       </c>
@@ -36716,7 +36716,7 @@
         <v>3349</v>
       </c>
     </row>
-    <row r="498" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
         <v>2229</v>
       </c>
@@ -36751,7 +36751,7 @@
         <v>3357</v>
       </c>
     </row>
-    <row r="499" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
         <v>2229</v>
       </c>
@@ -36786,7 +36786,7 @@
         <v>3365</v>
       </c>
     </row>
-    <row r="500" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
         <v>2229</v>
       </c>
@@ -36821,7 +36821,7 @@
         <v>3372</v>
       </c>
     </row>
-    <row r="501" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
         <v>2229</v>
       </c>
@@ -36856,7 +36856,7 @@
         <v>3379</v>
       </c>
     </row>
-    <row r="502" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
         <v>2229</v>
       </c>
@@ -36891,7 +36891,7 @@
         <v>3386</v>
       </c>
     </row>
-    <row r="503" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
         <v>2229</v>
       </c>
@@ -36926,7 +36926,7 @@
         <v>3394</v>
       </c>
     </row>
-    <row r="504" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
         <v>2229</v>
       </c>
@@ -36961,7 +36961,7 @@
         <v>3399</v>
       </c>
     </row>
-    <row r="505" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
         <v>2229</v>
       </c>
@@ -36996,7 +36996,7 @@
         <v>3406</v>
       </c>
     </row>
-    <row r="506" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
         <v>2229</v>
       </c>
@@ -37031,7 +37031,7 @@
         <v>3413</v>
       </c>
     </row>
-    <row r="507" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
         <v>2229</v>
       </c>
@@ -37066,7 +37066,7 @@
         <v>3420</v>
       </c>
     </row>
-    <row r="508" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
         <v>2229</v>
       </c>
@@ -37101,7 +37101,7 @@
         <v>3426</v>
       </c>
     </row>
-    <row r="509" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
         <v>2229</v>
       </c>
@@ -37136,7 +37136,7 @@
         <v>3434</v>
       </c>
     </row>
-    <row r="510" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
         <v>2229</v>
       </c>
@@ -37171,7 +37171,7 @@
         <v>3442</v>
       </c>
     </row>
-    <row r="511" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
         <v>2229</v>
       </c>
@@ -37206,7 +37206,7 @@
         <v>3449</v>
       </c>
     </row>
-    <row r="512" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
         <v>2229</v>
       </c>
@@ -37241,7 +37241,7 @@
         <v>3457</v>
       </c>
     </row>
-    <row r="513" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
         <v>2229</v>
       </c>
@@ -37276,7 +37276,7 @@
         <v>3463</v>
       </c>
     </row>
-    <row r="514" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
         <v>2229</v>
       </c>
@@ -37311,7 +37311,7 @@
         <v>3470</v>
       </c>
     </row>
-    <row r="515" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
         <v>2229</v>
       </c>
@@ -37346,7 +37346,7 @@
         <v>3476</v>
       </c>
     </row>
-    <row r="516" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
         <v>2229</v>
       </c>
@@ -37381,7 +37381,7 @@
         <v>3482</v>
       </c>
     </row>
-    <row r="517" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
         <v>2229</v>
       </c>
@@ -37416,7 +37416,7 @@
         <v>3487</v>
       </c>
     </row>
-    <row r="518" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
         <v>2229</v>
       </c>
@@ -37451,7 +37451,7 @@
         <v>3495</v>
       </c>
     </row>
-    <row r="519" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
         <v>2229</v>
       </c>
@@ -37486,7 +37486,7 @@
         <v>3502</v>
       </c>
     </row>
-    <row r="520" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
         <v>2229</v>
       </c>
@@ -37521,7 +37521,7 @@
         <v>3509</v>
       </c>
     </row>
-    <row r="521" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
         <v>2229</v>
       </c>
@@ -37556,7 +37556,7 @@
         <v>3517</v>
       </c>
     </row>
-    <row r="522" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
         <v>2229</v>
       </c>
@@ -37591,7 +37591,7 @@
         <v>3525</v>
       </c>
     </row>
-    <row r="523" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
         <v>2229</v>
       </c>
@@ -37626,7 +37626,7 @@
         <v>3531</v>
       </c>
     </row>
-    <row r="524" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
         <v>2229</v>
       </c>
@@ -37661,7 +37661,7 @@
         <v>3536</v>
       </c>
     </row>
-    <row r="525" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
         <v>2229</v>
       </c>
@@ -37696,7 +37696,7 @@
         <v>3544</v>
       </c>
     </row>
-    <row r="526" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
         <v>2229</v>
       </c>
@@ -37731,7 +37731,7 @@
         <v>3551</v>
       </c>
     </row>
-    <row r="527" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
         <v>2229</v>
       </c>
@@ -37766,7 +37766,7 @@
         <v>3558</v>
       </c>
     </row>
-    <row r="528" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
         <v>2229</v>
       </c>
@@ -37801,7 +37801,7 @@
         <v>3565</v>
       </c>
     </row>
-    <row r="529" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
         <v>2229</v>
       </c>
@@ -37836,7 +37836,7 @@
         <v>3572</v>
       </c>
     </row>
-    <row r="530" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
         <v>2229</v>
       </c>
@@ -37871,7 +37871,7 @@
         <v>3577</v>
       </c>
     </row>
-    <row r="531" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
         <v>2229</v>
       </c>
@@ -37906,7 +37906,7 @@
         <v>3584</v>
       </c>
     </row>
-    <row r="532" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
         <v>2229</v>
       </c>
@@ -37941,7 +37941,7 @@
         <v>3590</v>
       </c>
     </row>
-    <row r="533" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
         <v>2229</v>
       </c>
@@ -37976,7 +37976,7 @@
         <v>3597</v>
       </c>
     </row>
-    <row r="534" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
         <v>2229</v>
       </c>
@@ -38011,7 +38011,7 @@
         <v>3604</v>
       </c>
     </row>
-    <row r="535" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
         <v>2229</v>
       </c>
@@ -38046,7 +38046,7 @@
         <v>3609</v>
       </c>
     </row>
-    <row r="536" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
         <v>2229</v>
       </c>
@@ -38081,7 +38081,7 @@
         <v>3617</v>
       </c>
     </row>
-    <row r="537" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
         <v>2229</v>
       </c>
@@ -38116,7 +38116,7 @@
         <v>3625</v>
       </c>
     </row>
-    <row r="538" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
         <v>2229</v>
       </c>
@@ -38151,7 +38151,7 @@
         <v>3633</v>
       </c>
     </row>
-    <row r="539" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
         <v>2229</v>
       </c>
@@ -38186,7 +38186,7 @@
         <v>3641</v>
       </c>
     </row>
-    <row r="540" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
         <v>2229</v>
       </c>
@@ -38221,7 +38221,7 @@
         <v>3647</v>
       </c>
     </row>
-    <row r="541" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
         <v>2229</v>
       </c>
@@ -38256,7 +38256,7 @@
         <v>3654</v>
       </c>
     </row>
-    <row r="542" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
         <v>2229</v>
       </c>
@@ -38291,7 +38291,7 @@
         <v>3660</v>
       </c>
     </row>
-    <row r="543" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
         <v>2229</v>
       </c>
@@ -38326,7 +38326,7 @@
         <v>3668</v>
       </c>
     </row>
-    <row r="544" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
         <v>2229</v>
       </c>
@@ -38361,7 +38361,7 @@
         <v>3675</v>
       </c>
     </row>
-    <row r="545" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
         <v>2229</v>
       </c>
@@ -38396,7 +38396,7 @@
         <v>3683</v>
       </c>
     </row>
-    <row r="546" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
         <v>2229</v>
       </c>
@@ -38431,7 +38431,7 @@
         <v>3689</v>
       </c>
     </row>
-    <row r="547" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
         <v>2229</v>
       </c>
@@ -38466,7 +38466,7 @@
         <v>3697</v>
       </c>
     </row>
-    <row r="548" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
         <v>2229</v>
       </c>
@@ -38501,7 +38501,7 @@
         <v>3705</v>
       </c>
     </row>
-    <row r="549" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
         <v>2229</v>
       </c>
@@ -38536,7 +38536,7 @@
         <v>3713</v>
       </c>
     </row>
-    <row r="550" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
         <v>2229</v>
       </c>
@@ -38571,7 +38571,7 @@
         <v>3721</v>
       </c>
     </row>
-    <row r="551" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
         <v>2229</v>
       </c>
@@ -38606,7 +38606,7 @@
         <v>3728</v>
       </c>
     </row>
-    <row r="552" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
         <v>3729</v>
       </c>
@@ -38641,7 +38641,7 @@
         <v>3736</v>
       </c>
     </row>
-    <row r="553" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
         <v>3729</v>
       </c>
@@ -38676,7 +38676,7 @@
         <v>3742</v>
       </c>
     </row>
-    <row r="554" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
         <v>3729</v>
       </c>
@@ -38711,7 +38711,7 @@
         <v>3750</v>
       </c>
     </row>
-    <row r="555" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
         <v>3729</v>
       </c>
@@ -38746,7 +38746,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="556" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
         <v>3729</v>
       </c>
@@ -38781,7 +38781,7 @@
         <v>3762</v>
       </c>
     </row>
-    <row r="557" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
         <v>3729</v>
       </c>
@@ -38816,7 +38816,7 @@
         <v>3769</v>
       </c>
     </row>
-    <row r="558" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
         <v>3729</v>
       </c>
@@ -38851,7 +38851,7 @@
         <v>3777</v>
       </c>
     </row>
-    <row r="559" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
         <v>3729</v>
       </c>
@@ -38886,7 +38886,7 @@
         <v>3784</v>
       </c>
     </row>
-    <row r="560" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
         <v>3729</v>
       </c>
@@ -38921,7 +38921,7 @@
         <v>3790</v>
       </c>
     </row>
-    <row r="561" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
         <v>3729</v>
       </c>
@@ -38956,7 +38956,7 @@
         <v>3797</v>
       </c>
     </row>
-    <row r="562" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
         <v>3729</v>
       </c>
@@ -38991,7 +38991,7 @@
         <v>3804</v>
       </c>
     </row>
-    <row r="563" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
         <v>3729</v>
       </c>
@@ -39026,7 +39026,7 @@
         <v>3811</v>
       </c>
     </row>
-    <row r="564" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
         <v>3729</v>
       </c>
@@ -39061,7 +39061,7 @@
         <v>3816</v>
       </c>
     </row>
-    <row r="565" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
         <v>3729</v>
       </c>
@@ -39096,7 +39096,7 @@
         <v>3822</v>
       </c>
     </row>
-    <row r="566" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
         <v>3729</v>
       </c>
@@ -39131,7 +39131,7 @@
         <v>3830</v>
       </c>
     </row>
-    <row r="567" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
         <v>3729</v>
       </c>
@@ -39166,7 +39166,7 @@
         <v>3838</v>
       </c>
     </row>
-    <row r="568" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
         <v>3729</v>
       </c>
@@ -39201,7 +39201,7 @@
         <v>3845</v>
       </c>
     </row>
-    <row r="569" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
         <v>3729</v>
       </c>
@@ -39236,7 +39236,7 @@
         <v>3852</v>
       </c>
     </row>
-    <row r="570" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
         <v>3729</v>
       </c>
@@ -39271,7 +39271,7 @@
         <v>3860</v>
       </c>
     </row>
-    <row r="571" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
         <v>3729</v>
       </c>
@@ -39306,7 +39306,7 @@
         <v>3867</v>
       </c>
     </row>
-    <row r="572" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
         <v>3729</v>
       </c>
@@ -39341,7 +39341,7 @@
         <v>3873</v>
       </c>
     </row>
-    <row r="573" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
         <v>3729</v>
       </c>
@@ -39376,7 +39376,7 @@
         <v>3880</v>
       </c>
     </row>
-    <row r="574" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
         <v>3729</v>
       </c>
@@ -39411,7 +39411,7 @@
         <v>3887</v>
       </c>
     </row>
-    <row r="575" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
         <v>3729</v>
       </c>
@@ -39446,7 +39446,7 @@
         <v>3895</v>
       </c>
     </row>
-    <row r="576" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
         <v>3729</v>
       </c>
@@ -39481,7 +39481,7 @@
         <v>3901</v>
       </c>
     </row>
-    <row r="577" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
         <v>3729</v>
       </c>
@@ -39516,7 +39516,7 @@
         <v>3909</v>
       </c>
     </row>
-    <row r="578" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
         <v>3729</v>
       </c>
@@ -39551,7 +39551,7 @@
         <v>3917</v>
       </c>
     </row>
-    <row r="579" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
         <v>3729</v>
       </c>
@@ -39586,7 +39586,7 @@
         <v>3923</v>
       </c>
     </row>
-    <row r="580" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
         <v>3729</v>
       </c>
@@ -39621,7 +39621,7 @@
         <v>3929</v>
       </c>
     </row>
-    <row r="581" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
         <v>3729</v>
       </c>
@@ -39656,7 +39656,7 @@
         <v>3937</v>
       </c>
     </row>
-    <row r="582" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
         <v>3729</v>
       </c>
@@ -39691,7 +39691,7 @@
         <v>3944</v>
       </c>
     </row>
-    <row r="583" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A583" t="s">
         <v>3729</v>
       </c>
@@ -39726,7 +39726,7 @@
         <v>3950</v>
       </c>
     </row>
-    <row r="584" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
         <v>3729</v>
       </c>
@@ -39761,7 +39761,7 @@
         <v>3956</v>
       </c>
     </row>
-    <row r="585" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A585" t="s">
         <v>3729</v>
       </c>
@@ -39796,7 +39796,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="586" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
         <v>3729</v>
       </c>
@@ -39831,7 +39831,7 @@
         <v>3967</v>
       </c>
     </row>
-    <row r="587" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
         <v>3729</v>
       </c>
@@ -39866,7 +39866,7 @@
         <v>3974</v>
       </c>
     </row>
-    <row r="588" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A588" t="s">
         <v>3729</v>
       </c>
@@ -39901,7 +39901,7 @@
         <v>3979</v>
       </c>
     </row>
-    <row r="589" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A589" t="s">
         <v>3729</v>
       </c>
@@ -39936,7 +39936,7 @@
         <v>3986</v>
       </c>
     </row>
-    <row r="590" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A590" t="s">
         <v>3729</v>
       </c>
@@ -39971,7 +39971,7 @@
         <v>3992</v>
       </c>
     </row>
-    <row r="591" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A591" t="s">
         <v>3729</v>
       </c>
@@ -40006,7 +40006,7 @@
         <v>3999</v>
       </c>
     </row>
-    <row r="592" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A592" t="s">
         <v>3729</v>
       </c>
@@ -40041,7 +40041,7 @@
         <v>4005</v>
       </c>
     </row>
-    <row r="593" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A593" t="s">
         <v>3729</v>
       </c>
@@ -40076,7 +40076,7 @@
         <v>4009</v>
       </c>
     </row>
-    <row r="594" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A594" t="s">
         <v>3729</v>
       </c>
@@ -40111,7 +40111,7 @@
         <v>4017</v>
       </c>
     </row>
-    <row r="595" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A595" t="s">
         <v>3729</v>
       </c>
@@ -40146,7 +40146,7 @@
         <v>4025</v>
       </c>
     </row>
-    <row r="596" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A596" t="s">
         <v>3729</v>
       </c>
@@ -40181,7 +40181,7 @@
         <v>4032</v>
       </c>
     </row>
-    <row r="597" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A597" t="s">
         <v>3729</v>
       </c>
@@ -40216,7 +40216,7 @@
         <v>4040</v>
       </c>
     </row>
-    <row r="598" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A598" t="s">
         <v>3729</v>
       </c>
@@ -40251,7 +40251,7 @@
         <v>4047</v>
       </c>
     </row>
-    <row r="599" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A599" t="s">
         <v>3729</v>
       </c>
@@ -40286,7 +40286,7 @@
         <v>4054</v>
       </c>
     </row>
-    <row r="600" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A600" t="s">
         <v>3729</v>
       </c>
@@ -40321,7 +40321,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="601" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A601" t="s">
         <v>3729</v>
       </c>
@@ -40356,7 +40356,7 @@
         <v>4067</v>
       </c>
     </row>
-    <row r="602" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A602" t="s">
         <v>3729</v>
       </c>
@@ -40391,7 +40391,7 @@
         <v>4073</v>
       </c>
     </row>
-    <row r="603" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A603" t="s">
         <v>3729</v>
       </c>
@@ -40426,7 +40426,7 @@
         <v>4081</v>
       </c>
     </row>
-    <row r="604" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A604" t="s">
         <v>3729</v>
       </c>
@@ -40461,7 +40461,7 @@
         <v>4087</v>
       </c>
     </row>
-    <row r="605" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A605" t="s">
         <v>3729</v>
       </c>
@@ -40496,7 +40496,7 @@
         <v>4093</v>
       </c>
     </row>
-    <row r="606" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A606" t="s">
         <v>3729</v>
       </c>
@@ -40531,7 +40531,7 @@
         <v>4100</v>
       </c>
     </row>
-    <row r="607" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A607" t="s">
         <v>3729</v>
       </c>
@@ -40566,7 +40566,7 @@
         <v>4107</v>
       </c>
     </row>
-    <row r="608" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A608" t="s">
         <v>3729</v>
       </c>
@@ -40601,7 +40601,7 @@
         <v>4115</v>
       </c>
     </row>
-    <row r="609" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A609" t="s">
         <v>3729</v>
       </c>
@@ -40636,7 +40636,7 @@
         <v>4122</v>
       </c>
     </row>
-    <row r="610" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A610" t="s">
         <v>3729</v>
       </c>
@@ -40671,7 +40671,7 @@
         <v>4129</v>
       </c>
     </row>
-    <row r="611" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A611" t="s">
         <v>3729</v>
       </c>
@@ -40706,7 +40706,7 @@
         <v>4136</v>
       </c>
     </row>
-    <row r="612" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A612" t="s">
         <v>3729</v>
       </c>
@@ -40741,7 +40741,7 @@
         <v>4141</v>
       </c>
     </row>
-    <row r="613" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A613" t="s">
         <v>3729</v>
       </c>
@@ -40776,7 +40776,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="614" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A614" t="s">
         <v>3729</v>
       </c>
@@ -40811,7 +40811,7 @@
         <v>4152</v>
       </c>
     </row>
-    <row r="615" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A615" t="s">
         <v>3729</v>
       </c>
@@ -40846,7 +40846,7 @@
         <v>4159</v>
       </c>
     </row>
-    <row r="616" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A616" t="s">
         <v>3729</v>
       </c>
@@ -40881,7 +40881,7 @@
         <v>4166</v>
       </c>
     </row>
-    <row r="617" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A617" t="s">
         <v>3729</v>
       </c>
@@ -40916,7 +40916,7 @@
         <v>4174</v>
       </c>
     </row>
-    <row r="618" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A618" t="s">
         <v>3729</v>
       </c>
@@ -40951,7 +40951,7 @@
         <v>4180</v>
       </c>
     </row>
-    <row r="619" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A619" t="s">
         <v>3729</v>
       </c>
@@ -40986,7 +40986,7 @@
         <v>4185</v>
       </c>
     </row>
-    <row r="620" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A620" t="s">
         <v>3729</v>
       </c>
@@ -41021,7 +41021,7 @@
         <v>4190</v>
       </c>
     </row>
-    <row r="621" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A621" t="s">
         <v>3729</v>
       </c>
@@ -41056,7 +41056,7 @@
         <v>4197</v>
       </c>
     </row>
-    <row r="622" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A622" t="s">
         <v>3729</v>
       </c>
@@ -41091,7 +41091,7 @@
         <v>4203</v>
       </c>
     </row>
-    <row r="623" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A623" t="s">
         <v>3729</v>
       </c>
@@ -41126,7 +41126,7 @@
         <v>4209</v>
       </c>
     </row>
-    <row r="624" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A624" t="s">
         <v>3729</v>
       </c>
@@ -41161,7 +41161,7 @@
         <v>4216</v>
       </c>
     </row>
-    <row r="625" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A625" t="s">
         <v>3729</v>
       </c>
@@ -41196,7 +41196,7 @@
         <v>4222</v>
       </c>
     </row>
-    <row r="626" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A626" t="s">
         <v>3729</v>
       </c>
@@ -41231,7 +41231,7 @@
         <v>4227</v>
       </c>
     </row>
-    <row r="627" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A627" t="s">
         <v>3729</v>
       </c>
@@ -41266,7 +41266,7 @@
         <v>4235</v>
       </c>
     </row>
-    <row r="628" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A628" t="s">
         <v>3729</v>
       </c>
@@ -41301,7 +41301,7 @@
         <v>4241</v>
       </c>
     </row>
-    <row r="629" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A629" t="s">
         <v>3729</v>
       </c>
@@ -41336,7 +41336,7 @@
         <v>4249</v>
       </c>
     </row>
-    <row r="630" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A630" t="s">
         <v>3729</v>
       </c>
@@ -41371,7 +41371,7 @@
         <v>4255</v>
       </c>
     </row>
-    <row r="631" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A631" t="s">
         <v>3729</v>
       </c>
@@ -41406,7 +41406,7 @@
         <v>4262</v>
       </c>
     </row>
-    <row r="632" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A632" t="s">
         <v>3729</v>
       </c>
@@ -41441,7 +41441,7 @@
         <v>4268</v>
       </c>
     </row>
-    <row r="633" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A633" t="s">
         <v>3729</v>
       </c>
@@ -41476,7 +41476,7 @@
         <v>4274</v>
       </c>
     </row>
-    <row r="634" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A634" t="s">
         <v>3729</v>
       </c>
@@ -41511,7 +41511,7 @@
         <v>4281</v>
       </c>
     </row>
-    <row r="635" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A635" t="s">
         <v>3729</v>
       </c>
@@ -41546,7 +41546,7 @@
         <v>4288</v>
       </c>
     </row>
-    <row r="636" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A636" t="s">
         <v>3729</v>
       </c>
@@ -41581,7 +41581,7 @@
         <v>4294</v>
       </c>
     </row>
-    <row r="637" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A637" t="s">
         <v>3729</v>
       </c>
@@ -41616,7 +41616,7 @@
         <v>4302</v>
       </c>
     </row>
-    <row r="638" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A638" t="s">
         <v>3729</v>
       </c>
@@ -41651,7 +41651,7 @@
         <v>4310</v>
       </c>
     </row>
-    <row r="639" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A639" t="s">
         <v>3729</v>
       </c>
@@ -41686,7 +41686,7 @@
         <v>4316</v>
       </c>
     </row>
-    <row r="640" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A640" t="s">
         <v>3729</v>
       </c>
@@ -41721,7 +41721,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="641" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A641" t="s">
         <v>3729</v>
       </c>
@@ -41756,7 +41756,7 @@
         <v>4326</v>
       </c>
     </row>
-    <row r="642" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A642" t="s">
         <v>3729</v>
       </c>
@@ -41791,7 +41791,7 @@
         <v>4333</v>
       </c>
     </row>
-    <row r="643" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A643" t="s">
         <v>3729</v>
       </c>
@@ -41826,7 +41826,7 @@
         <v>4339</v>
       </c>
     </row>
-    <row r="644" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A644" t="s">
         <v>3729</v>
       </c>
@@ -41861,7 +41861,7 @@
         <v>4346</v>
       </c>
     </row>
-    <row r="645" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A645" t="s">
         <v>3729</v>
       </c>
@@ -41896,7 +41896,7 @@
         <v>4352</v>
       </c>
     </row>
-    <row r="646" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A646" t="s">
         <v>3729</v>
       </c>
@@ -41931,7 +41931,7 @@
         <v>4360</v>
       </c>
     </row>
-    <row r="647" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A647" t="s">
         <v>3729</v>
       </c>
@@ -41966,7 +41966,7 @@
         <v>4364</v>
       </c>
     </row>
-    <row r="648" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A648" t="s">
         <v>3729</v>
       </c>
@@ -42001,7 +42001,7 @@
         <v>4371</v>
       </c>
     </row>
-    <row r="649" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A649" t="s">
         <v>3729</v>
       </c>
@@ -42036,7 +42036,7 @@
         <v>4377</v>
       </c>
     </row>
-    <row r="650" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A650" t="s">
         <v>3729</v>
       </c>
@@ -42071,7 +42071,7 @@
         <v>4384</v>
       </c>
     </row>
-    <row r="651" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A651" t="s">
         <v>3729</v>
       </c>
@@ -42106,7 +42106,7 @@
         <v>4391</v>
       </c>
     </row>
-    <row r="652" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A652" t="s">
         <v>3729</v>
       </c>
@@ -42141,7 +42141,7 @@
         <v>4397</v>
       </c>
     </row>
-    <row r="653" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A653" t="s">
         <v>3729</v>
       </c>
@@ -42176,7 +42176,7 @@
         <v>4404</v>
       </c>
     </row>
-    <row r="654" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A654" t="s">
         <v>3729</v>
       </c>
@@ -42211,7 +42211,7 @@
         <v>4410</v>
       </c>
     </row>
-    <row r="655" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A655" t="s">
         <v>3729</v>
       </c>
@@ -42246,7 +42246,7 @@
         <v>4416</v>
       </c>
     </row>
-    <row r="656" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A656" t="s">
         <v>3729</v>
       </c>
@@ -42281,7 +42281,7 @@
         <v>4422</v>
       </c>
     </row>
-    <row r="657" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A657" t="s">
         <v>3729</v>
       </c>
@@ -42316,7 +42316,7 @@
         <v>4428</v>
       </c>
     </row>
-    <row r="658" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A658" t="s">
         <v>3729</v>
       </c>
@@ -42351,7 +42351,7 @@
         <v>4435</v>
       </c>
     </row>
-    <row r="659" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A659" t="s">
         <v>3729</v>
       </c>
@@ -42386,7 +42386,7 @@
         <v>4442</v>
       </c>
     </row>
-    <row r="660" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A660" t="s">
         <v>3729</v>
       </c>
@@ -42421,7 +42421,7 @@
         <v>4448</v>
       </c>
     </row>
-    <row r="661" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A661" t="s">
         <v>3729</v>
       </c>
@@ -42456,7 +42456,7 @@
         <v>4454</v>
       </c>
     </row>
-    <row r="662" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A662" t="s">
         <v>3729</v>
       </c>
@@ -42491,7 +42491,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="663" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A663" t="s">
         <v>3729</v>
       </c>
@@ -42526,7 +42526,7 @@
         <v>4465</v>
       </c>
     </row>
-    <row r="664" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A664" t="s">
         <v>3729</v>
       </c>
@@ -42561,7 +42561,7 @@
         <v>4472</v>
       </c>
     </row>
-    <row r="665" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A665" t="s">
         <v>3729</v>
       </c>
@@ -42596,7 +42596,7 @@
         <v>4477</v>
       </c>
     </row>
-    <row r="666" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A666" t="s">
         <v>3729</v>
       </c>
@@ -42631,7 +42631,7 @@
         <v>4483</v>
       </c>
     </row>
-    <row r="667" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A667" t="s">
         <v>3729</v>
       </c>
@@ -42666,7 +42666,7 @@
         <v>4491</v>
       </c>
     </row>
-    <row r="668" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A668" t="s">
         <v>3729</v>
       </c>
@@ -42701,7 +42701,7 @@
         <v>4496</v>
       </c>
     </row>
-    <row r="669" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A669" t="s">
         <v>3729</v>
       </c>
@@ -42736,7 +42736,7 @@
         <v>4501</v>
       </c>
     </row>
-    <row r="670" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A670" t="s">
         <v>3729</v>
       </c>
@@ -42771,7 +42771,7 @@
         <v>4507</v>
       </c>
     </row>
-    <row r="671" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A671" t="s">
         <v>3729</v>
       </c>
@@ -42806,7 +42806,7 @@
         <v>4514</v>
       </c>
     </row>
-    <row r="672" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A672" t="s">
         <v>3729</v>
       </c>
@@ -42841,7 +42841,7 @@
         <v>4520</v>
       </c>
     </row>
-    <row r="673" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A673" t="s">
         <v>3729</v>
       </c>
@@ -42876,7 +42876,7 @@
         <v>4527</v>
       </c>
     </row>
-    <row r="674" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A674" t="s">
         <v>3729</v>
       </c>
@@ -42911,7 +42911,7 @@
         <v>4533</v>
       </c>
     </row>
-    <row r="675" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A675" t="s">
         <v>3729</v>
       </c>
@@ -42946,7 +42946,7 @@
         <v>4541</v>
       </c>
     </row>
-    <row r="676" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A676" t="s">
         <v>3729</v>
       </c>
@@ -42981,7 +42981,7 @@
         <v>4549</v>
       </c>
     </row>
-    <row r="677" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A677" t="s">
         <v>3729</v>
       </c>
@@ -43016,7 +43016,7 @@
         <v>4557</v>
       </c>
     </row>
-    <row r="678" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A678" t="s">
         <v>3729</v>
       </c>
@@ -43051,7 +43051,7 @@
         <v>4565</v>
       </c>
     </row>
-    <row r="679" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A679" t="s">
         <v>3729</v>
       </c>
@@ -43086,7 +43086,7 @@
         <v>4570</v>
       </c>
     </row>
-    <row r="680" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A680" t="s">
         <v>3729</v>
       </c>
@@ -43121,7 +43121,7 @@
         <v>4577</v>
       </c>
     </row>
-    <row r="681" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A681" t="s">
         <v>3729</v>
       </c>
@@ -43156,7 +43156,7 @@
         <v>4584</v>
       </c>
     </row>
-    <row r="682" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A682" t="s">
         <v>3729</v>
       </c>
@@ -43191,7 +43191,7 @@
         <v>4591</v>
       </c>
     </row>
-    <row r="683" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A683" t="s">
         <v>3729</v>
       </c>
@@ -43226,7 +43226,7 @@
         <v>4597</v>
       </c>
     </row>
-    <row r="684" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A684" t="s">
         <v>3729</v>
       </c>
@@ -43261,7 +43261,7 @@
         <v>4603</v>
       </c>
     </row>
-    <row r="685" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A685" t="s">
         <v>3729</v>
       </c>
@@ -43296,7 +43296,7 @@
         <v>4611</v>
       </c>
     </row>
-    <row r="686" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A686" t="s">
         <v>3729</v>
       </c>
@@ -43331,7 +43331,7 @@
         <v>4619</v>
       </c>
     </row>
-    <row r="687" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A687" t="s">
         <v>3729</v>
       </c>
@@ -43366,7 +43366,7 @@
         <v>4623</v>
       </c>
     </row>
-    <row r="688" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A688" t="s">
         <v>3729</v>
       </c>
@@ -43401,7 +43401,7 @@
         <v>4630</v>
       </c>
     </row>
-    <row r="689" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A689" t="s">
         <v>3729</v>
       </c>
@@ -43436,7 +43436,7 @@
         <v>4636</v>
       </c>
     </row>
-    <row r="690" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A690" t="s">
         <v>3729</v>
       </c>
@@ -43471,7 +43471,7 @@
         <v>4642</v>
       </c>
     </row>
-    <row r="691" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A691" t="s">
         <v>3729</v>
       </c>
@@ -43506,7 +43506,7 @@
         <v>4650</v>
       </c>
     </row>
-    <row r="692" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A692" t="s">
         <v>3729</v>
       </c>
@@ -43541,7 +43541,7 @@
         <v>4658</v>
       </c>
     </row>
-    <row r="693" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A693" t="s">
         <v>3729</v>
       </c>
@@ -43576,7 +43576,7 @@
         <v>4665</v>
       </c>
     </row>
-    <row r="694" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A694" t="s">
         <v>3729</v>
       </c>
@@ -43611,7 +43611,7 @@
         <v>4671</v>
       </c>
     </row>
-    <row r="695" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A695" t="s">
         <v>3729</v>
       </c>
@@ -43646,7 +43646,7 @@
         <v>4677</v>
       </c>
     </row>
-    <row r="696" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A696" t="s">
         <v>3729</v>
       </c>
@@ -43681,7 +43681,7 @@
         <v>4682</v>
       </c>
     </row>
-    <row r="697" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A697" t="s">
         <v>3729</v>
       </c>
@@ -43716,7 +43716,7 @@
         <v>4688</v>
       </c>
     </row>
-    <row r="698" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A698" t="s">
         <v>3729</v>
       </c>
@@ -43751,7 +43751,7 @@
         <v>4696</v>
       </c>
     </row>
-    <row r="699" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A699" t="s">
         <v>3729</v>
       </c>
@@ -43786,7 +43786,7 @@
         <v>4703</v>
       </c>
     </row>
-    <row r="700" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A700" t="s">
         <v>3729</v>
       </c>
@@ -43821,7 +43821,7 @@
         <v>4709</v>
       </c>
     </row>
-    <row r="701" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A701" t="s">
         <v>3729</v>
       </c>
@@ -43856,7 +43856,7 @@
         <v>4716</v>
       </c>
     </row>
-    <row r="702" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A702" t="s">
         <v>3729</v>
       </c>
@@ -43891,7 +43891,7 @@
         <v>4722</v>
       </c>
     </row>
-    <row r="703" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A703" t="s">
         <v>3729</v>
       </c>
@@ -43926,7 +43926,7 @@
         <v>4727</v>
       </c>
     </row>
-    <row r="704" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A704" t="s">
         <v>3729</v>
       </c>
@@ -43961,7 +43961,7 @@
         <v>4733</v>
       </c>
     </row>
-    <row r="705" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A705" t="s">
         <v>3729</v>
       </c>
@@ -43996,7 +43996,7 @@
         <v>4738</v>
       </c>
     </row>
-    <row r="706" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A706" t="s">
         <v>3729</v>
       </c>
@@ -44031,7 +44031,7 @@
         <v>4744</v>
       </c>
     </row>
-    <row r="707" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A707" t="s">
         <v>3729</v>
       </c>
@@ -44066,7 +44066,7 @@
         <v>4751</v>
       </c>
     </row>
-    <row r="708" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A708" t="s">
         <v>3729</v>
       </c>
@@ -44101,7 +44101,7 @@
         <v>4758</v>
       </c>
     </row>
-    <row r="709" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A709" t="s">
         <v>3729</v>
       </c>
@@ -44136,7 +44136,7 @@
         <v>4766</v>
       </c>
     </row>
-    <row r="710" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A710" t="s">
         <v>3729</v>
       </c>
@@ -44171,7 +44171,7 @@
         <v>4774</v>
       </c>
     </row>
-    <row r="711" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A711" t="s">
         <v>3729</v>
       </c>
@@ -44206,7 +44206,7 @@
         <v>4780</v>
       </c>
     </row>
-    <row r="712" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A712" t="s">
         <v>3729</v>
       </c>
@@ -44241,7 +44241,7 @@
         <v>4785</v>
       </c>
     </row>
-    <row r="713" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A713" t="s">
         <v>3729</v>
       </c>
@@ -44276,7 +44276,7 @@
         <v>4790</v>
       </c>
     </row>
-    <row r="714" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A714" t="s">
         <v>3729</v>
       </c>
@@ -44311,7 +44311,7 @@
         <v>4796</v>
       </c>
     </row>
-    <row r="715" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A715" t="s">
         <v>3729</v>
       </c>
@@ -44346,7 +44346,7 @@
         <v>4801</v>
       </c>
     </row>
-    <row r="716" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A716" t="s">
         <v>3729</v>
       </c>
@@ -44381,7 +44381,7 @@
         <v>4806</v>
       </c>
     </row>
-    <row r="717" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A717" t="s">
         <v>3729</v>
       </c>
@@ -44416,7 +44416,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="718" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A718" t="s">
         <v>3729</v>
       </c>
@@ -44451,7 +44451,7 @@
         <v>4816</v>
       </c>
     </row>
-    <row r="719" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A719" t="s">
         <v>3729</v>
       </c>
@@ -44486,7 +44486,7 @@
         <v>4823</v>
       </c>
     </row>
-    <row r="720" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A720" t="s">
         <v>3729</v>
       </c>
@@ -44521,7 +44521,7 @@
         <v>4830</v>
       </c>
     </row>
-    <row r="721" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A721" t="s">
         <v>3729</v>
       </c>
@@ -44556,7 +44556,7 @@
         <v>4837</v>
       </c>
     </row>
-    <row r="722" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A722" t="s">
         <v>3729</v>
       </c>
@@ -44591,7 +44591,7 @@
         <v>4844</v>
       </c>
     </row>
-    <row r="723" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A723" t="s">
         <v>3729</v>
       </c>
@@ -44626,7 +44626,7 @@
         <v>4850</v>
       </c>
     </row>
-    <row r="724" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A724" t="s">
         <v>3729</v>
       </c>
@@ -44661,7 +44661,7 @@
         <v>4858</v>
       </c>
     </row>
-    <row r="725" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A725" t="s">
         <v>3729</v>
       </c>
@@ -44696,7 +44696,7 @@
         <v>4864</v>
       </c>
     </row>
-    <row r="726" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A726" t="s">
         <v>3729</v>
       </c>
@@ -44731,7 +44731,7 @@
         <v>4869</v>
       </c>
     </row>
-    <row r="727" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A727" t="s">
         <v>3729</v>
       </c>
@@ -44766,7 +44766,7 @@
         <v>4876</v>
       </c>
     </row>
-    <row r="728" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A728" t="s">
         <v>3729</v>
       </c>
@@ -44801,7 +44801,7 @@
         <v>4881</v>
       </c>
     </row>
-    <row r="729" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A729" t="s">
         <v>3729</v>
       </c>
@@ -44836,7 +44836,7 @@
         <v>4887</v>
       </c>
     </row>
-    <row r="730" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A730" t="s">
         <v>3729</v>
       </c>
@@ -44871,7 +44871,7 @@
         <v>4893</v>
       </c>
     </row>
-    <row r="731" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A731" t="s">
         <v>3729</v>
       </c>
@@ -44906,7 +44906,7 @@
         <v>4900</v>
       </c>
     </row>
-    <row r="732" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A732" t="s">
         <v>3729</v>
       </c>
@@ -44941,7 +44941,7 @@
         <v>4908</v>
       </c>
     </row>
-    <row r="733" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A733" t="s">
         <v>3729</v>
       </c>
@@ -44976,7 +44976,7 @@
         <v>4913</v>
       </c>
     </row>
-    <row r="734" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A734" t="s">
         <v>3729</v>
       </c>
@@ -45011,7 +45011,7 @@
         <v>4918</v>
       </c>
     </row>
-    <row r="735" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A735" t="s">
         <v>3729</v>
       </c>
@@ -45046,7 +45046,7 @@
         <v>4924</v>
       </c>
     </row>
-    <row r="736" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A736" t="s">
         <v>3729</v>
       </c>
@@ -45081,7 +45081,7 @@
         <v>4929</v>
       </c>
     </row>
-    <row r="737" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A737" t="s">
         <v>3729</v>
       </c>
@@ -45116,7 +45116,7 @@
         <v>4937</v>
       </c>
     </row>
-    <row r="738" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A738" t="s">
         <v>3729</v>
       </c>
@@ -45151,7 +45151,7 @@
         <v>4942</v>
       </c>
     </row>
-    <row r="739" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A739" t="s">
         <v>3729</v>
       </c>
@@ -45186,7 +45186,7 @@
         <v>4948</v>
       </c>
     </row>
-    <row r="740" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A740" t="s">
         <v>3729</v>
       </c>
@@ -45221,7 +45221,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="741" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A741" t="s">
         <v>3729</v>
       </c>
@@ -45256,7 +45256,7 @@
         <v>4959</v>
       </c>
     </row>
-    <row r="742" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A742" t="s">
         <v>3729</v>
       </c>
@@ -45291,7 +45291,7 @@
         <v>4965</v>
       </c>
     </row>
-    <row r="743" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A743" t="s">
         <v>3729</v>
       </c>
@@ -45326,7 +45326,7 @@
         <v>4971</v>
       </c>
     </row>
-    <row r="744" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A744" t="s">
         <v>3729</v>
       </c>
@@ -45361,7 +45361,7 @@
         <v>4977</v>
       </c>
     </row>
-    <row r="745" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A745" t="s">
         <v>3729</v>
       </c>
@@ -45396,7 +45396,7 @@
         <v>4982</v>
       </c>
     </row>
-    <row r="746" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A746" t="s">
         <v>3729</v>
       </c>
@@ -45431,7 +45431,7 @@
         <v>4989</v>
       </c>
     </row>
-    <row r="747" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A747" t="s">
         <v>3729</v>
       </c>
@@ -45466,7 +45466,7 @@
         <v>4997</v>
       </c>
     </row>
-    <row r="748" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A748" t="s">
         <v>3729</v>
       </c>
@@ -45501,7 +45501,7 @@
         <v>5005</v>
       </c>
     </row>
-    <row r="749" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A749" t="s">
         <v>3729</v>
       </c>
@@ -45536,7 +45536,7 @@
         <v>5010</v>
       </c>
     </row>
-    <row r="750" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A750" t="s">
         <v>3729</v>
       </c>
@@ -45571,7 +45571,7 @@
         <v>5018</v>
       </c>
     </row>
-    <row r="751" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A751" t="s">
         <v>3729</v>
       </c>
@@ -45606,7 +45606,7 @@
         <v>5026</v>
       </c>
     </row>
-    <row r="752" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A752" t="s">
         <v>3729</v>
       </c>
@@ -45641,7 +45641,7 @@
         <v>5034</v>
       </c>
     </row>
-    <row r="753" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A753" t="s">
         <v>3729</v>
       </c>
@@ -45676,7 +45676,7 @@
         <v>5042</v>
       </c>
     </row>
-    <row r="754" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A754" t="s">
         <v>3729</v>
       </c>
@@ -45711,7 +45711,7 @@
         <v>5047</v>
       </c>
     </row>
-    <row r="755" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A755" t="s">
         <v>3729</v>
       </c>
@@ -45746,7 +45746,7 @@
         <v>5054</v>
       </c>
     </row>
-    <row r="756" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A756" t="s">
         <v>5055</v>
       </c>
@@ -45781,7 +45781,7 @@
         <v>5063</v>
       </c>
     </row>
-    <row r="757" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A757" t="s">
         <v>5055</v>
       </c>
@@ -45816,7 +45816,7 @@
         <v>5071</v>
       </c>
     </row>
-    <row r="758" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A758" t="s">
         <v>5055</v>
       </c>
@@ -45851,7 +45851,7 @@
         <v>5078</v>
       </c>
     </row>
-    <row r="759" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A759" t="s">
         <v>5055</v>
       </c>
@@ -45886,7 +45886,7 @@
         <v>5083</v>
       </c>
     </row>
-    <row r="760" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A760" t="s">
         <v>5055</v>
       </c>
@@ -45921,7 +45921,7 @@
         <v>5090</v>
       </c>
     </row>
-    <row r="761" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A761" t="s">
         <v>5055</v>
       </c>
@@ -45956,7 +45956,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="762" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A762" t="s">
         <v>5055</v>
       </c>
@@ -45991,7 +45991,7 @@
         <v>5100</v>
       </c>
     </row>
-    <row r="763" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A763" t="s">
         <v>5055</v>
       </c>
@@ -46026,7 +46026,7 @@
         <v>5107</v>
       </c>
     </row>
-    <row r="764" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A764" t="s">
         <v>5055</v>
       </c>
@@ -46061,7 +46061,7 @@
         <v>5112</v>
       </c>
     </row>
-    <row r="765" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A765" t="s">
         <v>5055</v>
       </c>
@@ -46096,7 +46096,7 @@
         <v>5119</v>
       </c>
     </row>
-    <row r="766" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A766" t="s">
         <v>5055</v>
       </c>
@@ -46131,7 +46131,7 @@
         <v>5127</v>
       </c>
     </row>
-    <row r="767" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A767" t="s">
         <v>5055</v>
       </c>
@@ -46166,7 +46166,7 @@
         <v>5134</v>
       </c>
     </row>
-    <row r="768" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A768" t="s">
         <v>5055</v>
       </c>
@@ -46201,7 +46201,7 @@
         <v>5141</v>
       </c>
     </row>
-    <row r="769" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A769" t="s">
         <v>5055</v>
       </c>
@@ -46236,7 +46236,7 @@
         <v>5149</v>
       </c>
     </row>
-    <row r="770" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A770" t="s">
         <v>5055</v>
       </c>
@@ -46271,7 +46271,7 @@
         <v>5155</v>
       </c>
     </row>
-    <row r="771" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A771" t="s">
         <v>5055</v>
       </c>
@@ -46306,7 +46306,7 @@
         <v>5161</v>
       </c>
     </row>
-    <row r="772" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A772" t="s">
         <v>5055</v>
       </c>
@@ -46341,7 +46341,7 @@
         <v>5168</v>
       </c>
     </row>
-    <row r="773" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A773" t="s">
         <v>5055</v>
       </c>
@@ -46376,7 +46376,7 @@
         <v>5176</v>
       </c>
     </row>
-    <row r="774" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A774" t="s">
         <v>5055</v>
       </c>
@@ -46411,7 +46411,7 @@
         <v>5184</v>
       </c>
     </row>
-    <row r="775" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A775" t="s">
         <v>5055</v>
       </c>
@@ -46446,7 +46446,7 @@
         <v>5190</v>
       </c>
     </row>
-    <row r="776" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A776" t="s">
         <v>5055</v>
       </c>
@@ -46481,7 +46481,7 @@
         <v>5197</v>
       </c>
     </row>
-    <row r="777" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A777" t="s">
         <v>5055</v>
       </c>
@@ -46516,7 +46516,7 @@
         <v>5202</v>
       </c>
     </row>
-    <row r="778" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A778" t="s">
         <v>5055</v>
       </c>
@@ -46551,7 +46551,7 @@
         <v>5209</v>
       </c>
     </row>
-    <row r="779" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A779" t="s">
         <v>5055</v>
       </c>
@@ -46586,7 +46586,7 @@
         <v>5214</v>
       </c>
     </row>
-    <row r="780" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A780" t="s">
         <v>5055</v>
       </c>
@@ -46621,7 +46621,7 @@
         <v>5219</v>
       </c>
     </row>
-    <row r="781" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A781" t="s">
         <v>5055</v>
       </c>
@@ -46656,7 +46656,7 @@
         <v>5224</v>
       </c>
     </row>
-    <row r="782" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A782" t="s">
         <v>5055</v>
       </c>
@@ -46691,7 +46691,7 @@
         <v>5230</v>
       </c>
     </row>
-    <row r="783" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A783" t="s">
         <v>5055</v>
       </c>
@@ -46726,7 +46726,7 @@
         <v>5236</v>
       </c>
     </row>
-    <row r="784" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A784" t="s">
         <v>5055</v>
       </c>
@@ -46761,7 +46761,7 @@
         <v>5243</v>
       </c>
     </row>
-    <row r="785" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A785" t="s">
         <v>5055</v>
       </c>
@@ -46796,7 +46796,7 @@
         <v>5248</v>
       </c>
     </row>
-    <row r="786" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A786" t="s">
         <v>5055</v>
       </c>
@@ -46831,7 +46831,7 @@
         <v>5253</v>
       </c>
     </row>
-    <row r="787" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A787" t="s">
         <v>5055</v>
       </c>
@@ -46866,7 +46866,7 @@
         <v>5259</v>
       </c>
     </row>
-    <row r="788" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A788" t="s">
         <v>5055</v>
       </c>
@@ -46901,7 +46901,7 @@
         <v>5266</v>
       </c>
     </row>
-    <row r="789" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A789" t="s">
         <v>5055</v>
       </c>
@@ -46936,7 +46936,7 @@
         <v>5273</v>
       </c>
     </row>
-    <row r="790" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A790" t="s">
         <v>5055</v>
       </c>
@@ -46971,7 +46971,7 @@
         <v>5280</v>
       </c>
     </row>
-    <row r="791" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A791" t="s">
         <v>5055</v>
       </c>
@@ -47006,7 +47006,7 @@
         <v>5287</v>
       </c>
     </row>
-    <row r="792" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A792" t="s">
         <v>5055</v>
       </c>
@@ -47041,7 +47041,7 @@
         <v>5294</v>
       </c>
     </row>
-    <row r="793" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A793" t="s">
         <v>5055</v>
       </c>
@@ -47076,7 +47076,7 @@
         <v>5301</v>
       </c>
     </row>
-    <row r="794" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A794" t="s">
         <v>5055</v>
       </c>
@@ -47111,7 +47111,7 @@
         <v>5309</v>
       </c>
     </row>
-    <row r="795" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A795" t="s">
         <v>5055</v>
       </c>
@@ -47146,7 +47146,7 @@
         <v>5317</v>
       </c>
     </row>
-    <row r="796" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A796" t="s">
         <v>5055</v>
       </c>
@@ -47181,7 +47181,7 @@
         <v>5322</v>
       </c>
     </row>
-    <row r="797" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A797" t="s">
         <v>5055</v>
       </c>
@@ -47216,7 +47216,7 @@
         <v>5330</v>
       </c>
     </row>
-    <row r="798" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A798" t="s">
         <v>5055</v>
       </c>
@@ -47251,7 +47251,7 @@
         <v>5337</v>
       </c>
     </row>
-    <row r="799" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A799" t="s">
         <v>5055</v>
       </c>
@@ -47286,7 +47286,7 @@
         <v>5343</v>
       </c>
     </row>
-    <row r="800" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A800" t="s">
         <v>5055</v>
       </c>
@@ -47321,7 +47321,7 @@
         <v>5351</v>
       </c>
     </row>
-    <row r="801" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A801" t="s">
         <v>5055</v>
       </c>
@@ -47356,7 +47356,7 @@
         <v>5359</v>
       </c>
     </row>
-    <row r="802" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A802" t="s">
         <v>5055</v>
       </c>
@@ -47391,7 +47391,7 @@
         <v>5366</v>
       </c>
     </row>
-    <row r="803" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A803" t="s">
         <v>5055</v>
       </c>
@@ -47426,7 +47426,7 @@
         <v>5374</v>
       </c>
     </row>
-    <row r="804" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A804" t="s">
         <v>5055</v>
       </c>
@@ -47461,7 +47461,7 @@
         <v>5379</v>
       </c>
     </row>
-    <row r="805" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A805" t="s">
         <v>5055</v>
       </c>
@@ -47496,7 +47496,7 @@
         <v>5386</v>
       </c>
     </row>
-    <row r="806" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A806" t="s">
         <v>5055</v>
       </c>
@@ -47531,7 +47531,7 @@
         <v>5393</v>
       </c>
     </row>
-    <row r="807" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A807" t="s">
         <v>5055</v>
       </c>
@@ -47566,7 +47566,7 @@
         <v>5401</v>
       </c>
     </row>
-    <row r="808" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A808" t="s">
         <v>5055</v>
       </c>
@@ -47601,7 +47601,7 @@
         <v>5406</v>
       </c>
     </row>
-    <row r="809" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A809" t="s">
         <v>5055</v>
       </c>
@@ -47636,7 +47636,7 @@
         <v>5412</v>
       </c>
     </row>
-    <row r="810" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A810" t="s">
         <v>5055</v>
       </c>
@@ -47671,7 +47671,7 @@
         <v>5418</v>
       </c>
     </row>
-    <row r="811" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A811" t="s">
         <v>5055</v>
       </c>
@@ -47706,7 +47706,7 @@
         <v>5423</v>
       </c>
     </row>
-    <row r="812" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A812" t="s">
         <v>5055</v>
       </c>
@@ -47741,7 +47741,7 @@
         <v>5430</v>
       </c>
     </row>
-    <row r="813" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A813" t="s">
         <v>5055</v>
       </c>
@@ -47776,7 +47776,7 @@
         <v>5438</v>
       </c>
     </row>
-    <row r="814" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A814" t="s">
         <v>5055</v>
       </c>
@@ -47811,7 +47811,7 @@
         <v>5445</v>
       </c>
     </row>
-    <row r="815" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A815" t="s">
         <v>5055</v>
       </c>
@@ -47846,7 +47846,7 @@
         <v>5451</v>
       </c>
     </row>
-    <row r="816" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A816" t="s">
         <v>5055</v>
       </c>
@@ -47881,7 +47881,7 @@
         <v>5457</v>
       </c>
     </row>
-    <row r="817" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A817" t="s">
         <v>5055</v>
       </c>
@@ -47916,7 +47916,7 @@
         <v>5464</v>
       </c>
     </row>
-    <row r="818" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A818" t="s">
         <v>5055</v>
       </c>
@@ -47951,7 +47951,7 @@
         <v>5470</v>
       </c>
     </row>
-    <row r="819" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A819" t="s">
         <v>5055</v>
       </c>
@@ -47986,7 +47986,7 @@
         <v>5477</v>
       </c>
     </row>
-    <row r="820" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A820" t="s">
         <v>5055</v>
       </c>
@@ -48021,7 +48021,7 @@
         <v>5483</v>
       </c>
     </row>
-    <row r="821" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A821" t="s">
         <v>5055</v>
       </c>
@@ -48056,7 +48056,7 @@
         <v>5489</v>
       </c>
     </row>
-    <row r="822" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A822" t="s">
         <v>5055</v>
       </c>
@@ -48091,7 +48091,7 @@
         <v>5496</v>
       </c>
     </row>
-    <row r="823" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A823" t="s">
         <v>5055</v>
       </c>
@@ -48126,7 +48126,7 @@
         <v>5503</v>
       </c>
     </row>
-    <row r="824" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A824" t="s">
         <v>5055</v>
       </c>
@@ -48161,7 +48161,7 @@
         <v>5507</v>
       </c>
     </row>
-    <row r="825" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A825" t="s">
         <v>5055</v>
       </c>
@@ -48196,7 +48196,7 @@
         <v>5513</v>
       </c>
     </row>
-    <row r="826" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A826" t="s">
         <v>5055</v>
       </c>
@@ -48231,7 +48231,7 @@
         <v>5520</v>
       </c>
     </row>
-    <row r="827" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A827" t="s">
         <v>5055</v>
       </c>
@@ -48266,7 +48266,7 @@
         <v>5526</v>
       </c>
     </row>
-    <row r="828" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A828" t="s">
         <v>5055</v>
       </c>
@@ -48301,7 +48301,7 @@
         <v>5533</v>
       </c>
     </row>
-    <row r="829" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A829" t="s">
         <v>5055</v>
       </c>
@@ -48336,7 +48336,7 @@
         <v>5538</v>
       </c>
     </row>
-    <row r="830" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A830" t="s">
         <v>5055</v>
       </c>
@@ -48371,7 +48371,7 @@
         <v>5545</v>
       </c>
     </row>
-    <row r="831" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A831" t="s">
         <v>5055</v>
       </c>
@@ -48406,7 +48406,7 @@
         <v>5553</v>
       </c>
     </row>
-    <row r="832" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A832" t="s">
         <v>5055</v>
       </c>
@@ -48441,7 +48441,7 @@
         <v>5561</v>
       </c>
     </row>
-    <row r="833" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A833" t="s">
         <v>5055</v>
       </c>
@@ -48476,7 +48476,7 @@
         <v>5568</v>
       </c>
     </row>
-    <row r="834" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A834" t="s">
         <v>5055</v>
       </c>
@@ -48511,7 +48511,7 @@
         <v>5576</v>
       </c>
     </row>
-    <row r="835" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A835" t="s">
         <v>5055</v>
       </c>
@@ -48546,7 +48546,7 @@
         <v>5583</v>
       </c>
     </row>
-    <row r="836" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A836" t="s">
         <v>5055</v>
       </c>
@@ -48581,7 +48581,7 @@
         <v>5590</v>
       </c>
     </row>
-    <row r="837" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A837" t="s">
         <v>5055</v>
       </c>
@@ -48616,7 +48616,7 @@
         <v>5597</v>
       </c>
     </row>
-    <row r="838" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A838" t="s">
         <v>5055</v>
       </c>
@@ -48651,7 +48651,7 @@
         <v>5603</v>
       </c>
     </row>
-    <row r="839" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A839" t="s">
         <v>5055</v>
       </c>
@@ -48686,7 +48686,7 @@
         <v>5611</v>
       </c>
     </row>
-    <row r="840" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A840" t="s">
         <v>5055</v>
       </c>
@@ -48721,7 +48721,7 @@
         <v>5619</v>
       </c>
     </row>
-    <row r="841" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A841" t="s">
         <v>5055</v>
       </c>
@@ -48756,7 +48756,7 @@
         <v>5626</v>
       </c>
     </row>
-    <row r="842" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A842" t="s">
         <v>5055</v>
       </c>
@@ -48791,7 +48791,7 @@
         <v>5633</v>
       </c>
     </row>
-    <row r="843" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A843" t="s">
         <v>5055</v>
       </c>
@@ -48826,7 +48826,7 @@
         <v>5641</v>
       </c>
     </row>
-    <row r="844" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A844" t="s">
         <v>5055</v>
       </c>
@@ -48861,7 +48861,7 @@
         <v>5649</v>
       </c>
     </row>
-    <row r="845" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A845" t="s">
         <v>5055</v>
       </c>
@@ -48896,7 +48896,7 @@
         <v>5654</v>
       </c>
     </row>
-    <row r="846" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A846" t="s">
         <v>5055</v>
       </c>
@@ -48931,7 +48931,7 @@
         <v>5660</v>
       </c>
     </row>
-    <row r="847" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A847" t="s">
         <v>5055</v>
       </c>
@@ -48966,7 +48966,7 @@
         <v>5668</v>
       </c>
     </row>
-    <row r="848" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A848" t="s">
         <v>5055</v>
       </c>
@@ -49001,7 +49001,7 @@
         <v>5676</v>
       </c>
     </row>
-    <row r="849" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A849" t="s">
         <v>5055</v>
       </c>
@@ -49036,7 +49036,7 @@
         <v>5684</v>
       </c>
     </row>
-    <row r="850" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A850" t="s">
         <v>5055</v>
       </c>
@@ -49071,7 +49071,7 @@
         <v>5692</v>
       </c>
     </row>
-    <row r="851" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A851" t="s">
         <v>5055</v>
       </c>
@@ -49106,7 +49106,7 @@
         <v>5698</v>
       </c>
     </row>
-    <row r="852" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A852" t="s">
         <v>5055</v>
       </c>
@@ -49141,7 +49141,7 @@
         <v>5705</v>
       </c>
     </row>
-    <row r="853" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A853" t="s">
         <v>5055</v>
       </c>
@@ -49176,7 +49176,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="854" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A854" t="s">
         <v>5055</v>
       </c>
@@ -49211,7 +49211,7 @@
         <v>5718</v>
       </c>
     </row>
-    <row r="855" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A855" t="s">
         <v>5055</v>
       </c>
@@ -49246,7 +49246,7 @@
         <v>5726</v>
       </c>
     </row>
-    <row r="856" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A856" t="s">
         <v>5055</v>
       </c>
@@ -49281,7 +49281,7 @@
         <v>5732</v>
       </c>
     </row>
-    <row r="857" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A857" t="s">
         <v>5055</v>
       </c>
@@ -49316,7 +49316,7 @@
         <v>5739</v>
       </c>
     </row>
-    <row r="858" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A858" t="s">
         <v>5055</v>
       </c>
@@ -49351,7 +49351,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="859" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A859" t="s">
         <v>5055</v>
       </c>
@@ -49386,7 +49386,7 @@
         <v>5750</v>
       </c>
     </row>
-    <row r="860" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A860" t="s">
         <v>5055</v>
       </c>
@@ -49421,7 +49421,7 @@
         <v>5758</v>
       </c>
     </row>
-    <row r="861" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A861" t="s">
         <v>5055</v>
       </c>
@@ -49456,7 +49456,7 @@
         <v>5763</v>
       </c>
     </row>
-    <row r="862" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A862" t="s">
         <v>5055</v>
       </c>
@@ -49491,7 +49491,7 @@
         <v>5769</v>
       </c>
     </row>
-    <row r="863" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A863" t="s">
         <v>5055</v>
       </c>
@@ -49526,7 +49526,7 @@
         <v>5773</v>
       </c>
     </row>
-    <row r="864" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A864" t="s">
         <v>5055</v>
       </c>
@@ -49561,7 +49561,7 @@
         <v>5777</v>
       </c>
     </row>
-    <row r="865" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A865" t="s">
         <v>5055</v>
       </c>
@@ -49596,7 +49596,7 @@
         <v>5783</v>
       </c>
     </row>
-    <row r="866" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A866" t="s">
         <v>5055</v>
       </c>
@@ -49631,7 +49631,7 @@
         <v>5788</v>
       </c>
     </row>
-    <row r="867" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A867" t="s">
         <v>5055</v>
       </c>
@@ -49666,7 +49666,7 @@
         <v>5794</v>
       </c>
     </row>
-    <row r="868" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A868" t="s">
         <v>5055</v>
       </c>
@@ -49701,7 +49701,7 @@
         <v>5800</v>
       </c>
     </row>
-    <row r="869" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A869" t="s">
         <v>5055</v>
       </c>
@@ -49736,7 +49736,7 @@
         <v>5805</v>
       </c>
     </row>
-    <row r="870" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A870" t="s">
         <v>5055</v>
       </c>
@@ -49771,7 +49771,7 @@
         <v>5812</v>
       </c>
     </row>
-    <row r="871" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A871" t="s">
         <v>5055</v>
       </c>
@@ -49806,7 +49806,7 @@
         <v>5819</v>
       </c>
     </row>
-    <row r="872" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A872" t="s">
         <v>5055</v>
       </c>
@@ -49841,7 +49841,7 @@
         <v>5825</v>
       </c>
     </row>
-    <row r="873" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A873" t="s">
         <v>5055</v>
       </c>
@@ -49876,7 +49876,7 @@
         <v>5830</v>
       </c>
     </row>
-    <row r="874" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A874" t="s">
         <v>5055</v>
       </c>
@@ -49911,7 +49911,7 @@
         <v>5835</v>
       </c>
     </row>
-    <row r="875" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A875" t="s">
         <v>5055</v>
       </c>
@@ -49946,7 +49946,7 @@
         <v>5841</v>
       </c>
     </row>
-    <row r="876" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A876" t="s">
         <v>5055</v>
       </c>
@@ -49981,7 +49981,7 @@
         <v>5848</v>
       </c>
     </row>
-    <row r="877" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="877" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A877" t="s">
         <v>5055</v>
       </c>
@@ -50016,7 +50016,7 @@
         <v>5854</v>
       </c>
     </row>
-    <row r="878" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="878" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A878" t="s">
         <v>5055</v>
       </c>
@@ -50051,7 +50051,7 @@
         <v>5861</v>
       </c>
     </row>
-    <row r="879" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="879" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A879" t="s">
         <v>5862</v>
       </c>
@@ -50086,7 +50086,7 @@
         <v>5868</v>
       </c>
     </row>
-    <row r="880" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A880" t="s">
         <v>5862</v>
       </c>
@@ -50121,7 +50121,7 @@
         <v>5872</v>
       </c>
     </row>
-    <row r="881" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="881" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A881" t="s">
         <v>5862</v>
       </c>
@@ -50156,7 +50156,7 @@
         <v>5878</v>
       </c>
     </row>
-    <row r="882" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="882" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A882" t="s">
         <v>5862</v>
       </c>
@@ -50191,7 +50191,7 @@
         <v>5884</v>
       </c>
     </row>
-    <row r="883" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="883" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A883" t="s">
         <v>5862</v>
       </c>
@@ -50226,7 +50226,7 @@
         <v>5891</v>
       </c>
     </row>
-    <row r="884" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="884" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A884" t="s">
         <v>5862</v>
       </c>
@@ -50261,7 +50261,7 @@
         <v>5897</v>
       </c>
     </row>
-    <row r="885" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="885" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A885" t="s">
         <v>5862</v>
       </c>
@@ -50296,7 +50296,7 @@
         <v>5905</v>
       </c>
     </row>
-    <row r="886" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="886" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A886" t="s">
         <v>5862</v>
       </c>
@@ -50331,7 +50331,7 @@
         <v>5910</v>
       </c>
     </row>
-    <row r="887" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="887" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A887" t="s">
         <v>5862</v>
       </c>
@@ -50366,7 +50366,7 @@
         <v>5918</v>
       </c>
     </row>
-    <row r="888" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="888" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A888" t="s">
         <v>5862</v>
       </c>
@@ -50401,7 +50401,7 @@
         <v>5926</v>
       </c>
     </row>
-    <row r="889" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="889" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A889" t="s">
         <v>5862</v>
       </c>
@@ -50436,7 +50436,7 @@
         <v>5933</v>
       </c>
     </row>
-    <row r="890" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="890" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A890" t="s">
         <v>5862</v>
       </c>
@@ -50471,7 +50471,7 @@
         <v>5940</v>
       </c>
     </row>
-    <row r="891" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="891" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A891" t="s">
         <v>5862</v>
       </c>
@@ -50506,7 +50506,7 @@
         <v>5947</v>
       </c>
     </row>
-    <row r="892" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="892" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A892" t="s">
         <v>5862</v>
       </c>
@@ -50541,7 +50541,7 @@
         <v>5952</v>
       </c>
     </row>
-    <row r="893" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="893" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A893" t="s">
         <v>5862</v>
       </c>
@@ -50576,7 +50576,7 @@
         <v>5957</v>
       </c>
     </row>
-    <row r="894" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="894" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A894" t="s">
         <v>5862</v>
       </c>
@@ -50611,7 +50611,7 @@
         <v>5963</v>
       </c>
     </row>
-    <row r="895" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="895" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A895" t="s">
         <v>5862</v>
       </c>
@@ -50646,7 +50646,7 @@
         <v>5970</v>
       </c>
     </row>
-    <row r="896" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="896" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A896" t="s">
         <v>5862</v>
       </c>
@@ -50681,7 +50681,7 @@
         <v>5975</v>
       </c>
     </row>
-    <row r="897" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="897" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A897" t="s">
         <v>5862</v>
       </c>
@@ -50716,7 +50716,7 @@
         <v>5981</v>
       </c>
     </row>
-    <row r="898" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="898" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A898" t="s">
         <v>5862</v>
       </c>
@@ -50751,7 +50751,7 @@
         <v>5989</v>
       </c>
     </row>
-    <row r="899" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="899" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A899" t="s">
         <v>5862</v>
       </c>
@@ -50786,7 +50786,7 @@
         <v>5995</v>
       </c>
     </row>
-    <row r="900" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="900" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A900" t="s">
         <v>5862</v>
       </c>
@@ -50821,7 +50821,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="901" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="901" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A901" t="s">
         <v>5862</v>
       </c>
@@ -50856,7 +50856,7 @@
         <v>6008</v>
       </c>
     </row>
-    <row r="902" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="902" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A902" t="s">
         <v>5862</v>
       </c>
@@ -50891,7 +50891,7 @@
         <v>6014</v>
       </c>
     </row>
-    <row r="903" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="903" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A903" t="s">
         <v>5862</v>
       </c>
@@ -50926,7 +50926,7 @@
         <v>6021</v>
       </c>
     </row>
-    <row r="904" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="904" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A904" t="s">
         <v>5862</v>
       </c>
@@ -50961,7 +50961,7 @@
         <v>6025</v>
       </c>
     </row>
-    <row r="905" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="905" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A905" t="s">
         <v>5862</v>
       </c>
@@ -50996,7 +50996,7 @@
         <v>6032</v>
       </c>
     </row>
-    <row r="906" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="906" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A906" t="s">
         <v>5862</v>
       </c>
@@ -51031,7 +51031,7 @@
         <v>6040</v>
       </c>
     </row>
-    <row r="907" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="907" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A907" t="s">
         <v>5862</v>
       </c>
@@ -51066,7 +51066,7 @@
         <v>6046</v>
       </c>
     </row>
-    <row r="908" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="908" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A908" t="s">
         <v>5862</v>
       </c>
@@ -51101,7 +51101,7 @@
         <v>6052</v>
       </c>
     </row>
-    <row r="909" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="909" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A909" t="s">
         <v>5862</v>
       </c>
@@ -51136,7 +51136,7 @@
         <v>6056</v>
       </c>
     </row>
-    <row r="910" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="910" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A910" t="s">
         <v>5862</v>
       </c>
@@ -51171,7 +51171,7 @@
         <v>6062</v>
       </c>
     </row>
-    <row r="911" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="911" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A911" t="s">
         <v>5862</v>
       </c>
@@ -51206,7 +51206,7 @@
         <v>6069</v>
       </c>
     </row>
-    <row r="912" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="912" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A912" t="s">
         <v>5862</v>
       </c>
@@ -51241,7 +51241,7 @@
         <v>6077</v>
       </c>
     </row>
-    <row r="913" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="913" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A913" t="s">
         <v>5862</v>
       </c>
@@ -51276,7 +51276,7 @@
         <v>6084</v>
       </c>
     </row>
-    <row r="914" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="914" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A914" t="s">
         <v>5862</v>
       </c>
@@ -51311,7 +51311,7 @@
         <v>6090</v>
       </c>
     </row>
-    <row r="915" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="915" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A915" t="s">
         <v>5862</v>
       </c>
@@ -51346,7 +51346,7 @@
         <v>6094</v>
       </c>
     </row>
-    <row r="916" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="916" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A916" t="s">
         <v>5862</v>
       </c>
@@ -51381,7 +51381,7 @@
         <v>6099</v>
       </c>
     </row>
-    <row r="917" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="917" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A917" t="s">
         <v>5862</v>
       </c>
@@ -51416,7 +51416,7 @@
         <v>6105</v>
       </c>
     </row>
-    <row r="918" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="918" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A918" t="s">
         <v>5862</v>
       </c>
@@ -51451,7 +51451,7 @@
         <v>6111</v>
       </c>
     </row>
-    <row r="919" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="919" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A919" t="s">
         <v>5862</v>
       </c>
@@ -51486,7 +51486,7 @@
         <v>6117</v>
       </c>
     </row>
-    <row r="920" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="920" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A920" t="s">
         <v>5862</v>
       </c>
@@ -51521,7 +51521,7 @@
         <v>6122</v>
       </c>
     </row>
-    <row r="921" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="921" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A921" t="s">
         <v>5862</v>
       </c>
@@ -51556,7 +51556,7 @@
         <v>6128</v>
       </c>
     </row>
-    <row r="922" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="922" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A922" t="s">
         <v>5862</v>
       </c>
@@ -51591,7 +51591,7 @@
         <v>6134</v>
       </c>
     </row>
-    <row r="923" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="923" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A923" t="s">
         <v>5862</v>
       </c>
@@ -51626,7 +51626,7 @@
         <v>6140</v>
       </c>
     </row>
-    <row r="924" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="924" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A924" t="s">
         <v>5862</v>
       </c>
@@ -51661,7 +51661,7 @@
         <v>6146</v>
       </c>
     </row>
-    <row r="925" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="925" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A925" t="s">
         <v>5862</v>
       </c>
@@ -51696,7 +51696,7 @@
         <v>6153</v>
       </c>
     </row>
-    <row r="926" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="926" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A926" t="s">
         <v>5862</v>
       </c>
@@ -51731,7 +51731,7 @@
         <v>6158</v>
       </c>
     </row>
-    <row r="927" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="927" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A927" t="s">
         <v>5862</v>
       </c>
@@ -51766,7 +51766,7 @@
         <v>6165</v>
       </c>
     </row>
-    <row r="928" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="928" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A928" t="s">
         <v>5862</v>
       </c>
@@ -51801,7 +51801,7 @@
         <v>6170</v>
       </c>
     </row>
-    <row r="929" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="929" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A929" t="s">
         <v>5862</v>
       </c>
@@ -51836,7 +51836,7 @@
         <v>6176</v>
       </c>
     </row>
-    <row r="930" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="930" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A930" t="s">
         <v>5862</v>
       </c>
@@ -51871,7 +51871,7 @@
         <v>6182</v>
       </c>
     </row>
-    <row r="931" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="931" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A931" t="s">
         <v>5862</v>
       </c>
@@ -51906,7 +51906,7 @@
         <v>6188</v>
       </c>
     </row>
-    <row r="932" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="932" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A932" t="s">
         <v>5862</v>
       </c>
@@ -51941,7 +51941,7 @@
         <v>6194</v>
       </c>
     </row>
-    <row r="933" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="933" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A933" t="s">
         <v>5862</v>
       </c>
@@ -51976,7 +51976,7 @@
         <v>6201</v>
       </c>
     </row>
-    <row r="934" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="934" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A934" t="s">
         <v>5862</v>
       </c>
@@ -52011,7 +52011,7 @@
         <v>6207</v>
       </c>
     </row>
-    <row r="935" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="935" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A935" t="s">
         <v>5862</v>
       </c>
@@ -52046,7 +52046,7 @@
         <v>6215</v>
       </c>
     </row>
-    <row r="936" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="936" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A936" t="s">
         <v>5862</v>
       </c>
@@ -52081,7 +52081,7 @@
         <v>6223</v>
       </c>
     </row>
-    <row r="937" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="937" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A937" t="s">
         <v>5862</v>
       </c>
@@ -52116,7 +52116,7 @@
         <v>6228</v>
       </c>
     </row>
-    <row r="938" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="938" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A938" t="s">
         <v>5862</v>
       </c>
@@ -52151,7 +52151,7 @@
         <v>6234</v>
       </c>
     </row>
-    <row r="939" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="939" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A939" t="s">
         <v>5862</v>
       </c>
@@ -52186,7 +52186,7 @@
         <v>6241</v>
       </c>
     </row>
-    <row r="940" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="940" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A940" t="s">
         <v>5862</v>
       </c>
@@ -52221,7 +52221,7 @@
         <v>6246</v>
       </c>
     </row>
-    <row r="941" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="941" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A941" t="s">
         <v>5862</v>
       </c>
@@ -52256,7 +52256,7 @@
         <v>6253</v>
       </c>
     </row>
-    <row r="942" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="942" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A942" t="s">
         <v>5862</v>
       </c>
@@ -52291,7 +52291,7 @@
         <v>6259</v>
       </c>
     </row>
-    <row r="943" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="943" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A943" t="s">
         <v>5862</v>
       </c>
@@ -52326,7 +52326,7 @@
         <v>6264</v>
       </c>
     </row>
-    <row r="944" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="944" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A944" t="s">
         <v>5862</v>
       </c>
@@ -52361,7 +52361,7 @@
         <v>6269</v>
       </c>
     </row>
-    <row r="945" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="945" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A945" t="s">
         <v>5862</v>
       </c>
@@ -52396,7 +52396,7 @@
         <v>6273</v>
       </c>
     </row>
-    <row r="946" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="946" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A946" t="s">
         <v>5862</v>
       </c>
@@ -52431,7 +52431,7 @@
         <v>6281</v>
       </c>
     </row>
-    <row r="947" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="947" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A947" t="s">
         <v>5862</v>
       </c>
@@ -52466,7 +52466,7 @@
         <v>6287</v>
       </c>
     </row>
-    <row r="948" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="948" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A948" t="s">
         <v>5862</v>
       </c>
@@ -52501,7 +52501,7 @@
         <v>6295</v>
       </c>
     </row>
-    <row r="949" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="949" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A949" t="s">
         <v>5862</v>
       </c>
